--- a/data/hotels_by_city/Denver/Denver_shard_26.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_26.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="615">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33694-d235485-Reviews-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Comfort-Inn-Denver-West.h862452.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1751 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r591705377-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>33694</t>
+  </si>
+  <si>
+    <t>235485</t>
+  </si>
+  <si>
+    <t>591705377</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>“Peaceful, Easy Feeling for Comfort Inn”</t>
+  </si>
+  <si>
+    <t>We spent two nights here to attend Eagles concert at Coors Stadium and explore Golden. Easy check-in with helpful staff. We were given their largest room, and I do mean LARGE!  It was the room above the lobby which had king bed and sofa if any one needs a huge room. Room was very clean, and I am a stickler for cleanliness. Room had fridge, microwave and coffee maker.  Breakfast buffet was good with usual cereals, yogurts and pastries, but it also had biscuits and gravy, scrambled eggs, bacon and sausage. This southern woman likes biscuits and gravy!!!! Breakfast area had full attendant  at all times. Hotel also has laundry area on first floor, nice indoor pool, and workout room. Location was great for us as hotel was right off I-70 and Kipling but we never heard road noise. Tv had plenty of stations and even had HBO.  We did not want to drive to Coors Stadium for concert so a young man at the desk explained that we could drive and park at the light rail Oak Station two miles away off Kipling Street and take the train to the concert. We did this, and it was a great experience. The Comfort Inn Denver West provided  us a peaceful, easy feeing, and if the Eagles return to Denver we will return to this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We spent two nights here to attend Eagles concert at Coors Stadium and explore Golden. Easy check-in with helpful staff. We were given their largest room, and I do mean LARGE!  It was the room above the lobby which had king bed and sofa if any one needs a huge room. Room was very clean, and I am a stickler for cleanliness. Room had fridge, microwave and coffee maker.  Breakfast buffet was good with usual cereals, yogurts and pastries, but it also had biscuits and gravy, scrambled eggs, bacon and sausage. This southern woman likes biscuits and gravy!!!! Breakfast area had full attendant  at all times. Hotel also has laundry area on first floor, nice indoor pool, and workout room. Location was great for us as hotel was right off I-70 and Kipling but we never heard road noise. Tv had plenty of stations and even had HBO.  We did not want to drive to Coors Stadium for concert so a young man at the desk explained that we could drive and park at the light rail Oak Station two miles away off Kipling Street and take the train to the concert. We did this, and it was a great experience. The Comfort Inn Denver West provided  us a peaceful, easy feeing, and if the Eagles return to Denver we will return to this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r590708296-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>590708296</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 nights in a row, felt like new home </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price was primary consideration because we only slept and showered here. Room had cracked tub, shower curtain broken and caused leaking all over the floor. The elevator broke one day making us walk up three flights of stairs a while (for a partially disabled veteran). Breakfast was typical layout, but everything was cold except the waffles.Adequate layout of room. Poor selection of tv stations.   We’ll be 50/50 on future stays. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r584618229-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>584618229</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Awesome service!</t>
+  </si>
+  <si>
+    <t>Traditionally i dont stay at Comfort Inns but due to not preparing or reserving this latest family vacation we found this location. Well it was a blessing in disguise. The front desk clerk was amazing we got the last room they had for memorial day weekend. They accommodated our family of 6 on such short notice. The beds were so comfortable breakfast was great. Very pleased with the cleanliness of the room and hospitality of the staff. Definitely recommend this location.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r565537075-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>565537075</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>Clean Room</t>
+  </si>
+  <si>
+    <t>The room was very clean and in good shape. This hotel is in the back by highway 70. It was very quiet We barely heard any noise. The beds are comfortable and so are the pillows. I recommend staying here if you in the area.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r548393564-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>548393564</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Good rest, amazing customer service!</t>
+  </si>
+  <si>
+    <t>We like staying at Choice Hotels in general and they're usually adequate for our needs. We're always pleasantly surprised when one goes above and beyond. This one is so nice that I'm writing this review before I even check out! Every person we've talked with from the moment we checked in has been SO friendly. The manager, Loreen, was leaving, but stopped to talk with me when I had a question about my reservation like she had nowhere else to go. I was worried about the potential for noise at first since it's right beside I-70, but our room was very quiet and we slept very well. The breakfast was better that I expected. Yes, the standard scrambled eggs, bacon and waffles, but also Greek yogurt and good multi-grain bread for toast. Their "bold" coffee is better than expected, as well.Shout-out to Jessyca and Augie for their smiling, helpful customer service!It's clean, well-kept and we will definitely stay here whenever we come to visit out daughter in Arvada.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We like staying at Choice Hotels in general and they're usually adequate for our needs. We're always pleasantly surprised when one goes above and beyond. This one is so nice that I'm writing this review before I even check out! Every person we've talked with from the moment we checked in has been SO friendly. The manager, Loreen, was leaving, but stopped to talk with me when I had a question about my reservation like she had nowhere else to go. I was worried about the potential for noise at first since it's right beside I-70, but our room was very quiet and we slept very well. The breakfast was better that I expected. Yes, the standard scrambled eggs, bacon and waffles, but also Greek yogurt and good multi-grain bread for toast. Their "bold" coffee is better than expected, as well.Shout-out to Jessyca and Augie for their smiling, helpful customer service!It's clean, well-kept and we will definitely stay here whenever we come to visit out daughter in Arvada.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r544893299-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>544893299</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Friendly Staff, clean room</t>
+  </si>
+  <si>
+    <t>But there was a strong odor of cleaning products when you walk into the lobby and throughout the facility - well, throughout the first floor.  Don't know about the second floor..  Room was small but comfortable, and it was clean. For being so close to the freeway, it was a very quiet stay.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r537009984-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>537009984</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Quiet, lovely views</t>
+  </si>
+  <si>
+    <t>This clean, quiet, efficiently run and well-located hotel had everything we needed. Updated decor, nice size room, good breakfast. We had sunny room with big window looking south over large open space park. Hotel is off I70, but set back a block or so from the highway.  There was a fridge in the room, but no microwave. Beds were comfortable.  Good value, no complaints!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r506911347-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>506911347</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>they were looking at my card info a  week prior to intended stay-I canceled reservation.</t>
+  </si>
+  <si>
+    <t>I am a very loyal choice customer-BUT not every choice owner is on the up and up-Knowing This, whenever I make a reservation-i *always* notate it as follows:"do not charge card without guest present"-Choice Corporate,for their part, states that hotels don't  look at that note til the day of the stay-one week ahead,I get a voice mail that they have already read my notation.(this usually infers that they have ran the card already, in  my experience in scenarios like this in the past-notably in the chicago area).Given the failure to follow both mine, and choice's instructions regarding customer notations, I canceled the pending reservations as a preventative measure.I'll let someone else take a gamble on their card being billed ahead of the intended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I am a very loyal choice customer-BUT not every choice owner is on the up and up-Knowing This, whenever I make a reservation-i *always* notate it as follows:"do not charge card without guest present"-Choice Corporate,for their part, states that hotels don't  look at that note til the day of the stay-one week ahead,I get a voice mail that they have already read my notation.(this usually infers that they have ran the card already, in  my experience in scenarios like this in the past-notably in the chicago area).Given the failure to follow both mine, and choice's instructions regarding customer notations, I canceled the pending reservations as a preventative measure.I'll let someone else take a gamble on their card being billed ahead of the intended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r492069288-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>492069288</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Nice but needs more updating</t>
+  </si>
+  <si>
+    <t>Our group stayed here 1 night on our way through Denver.  Free parking, free Wifi, free breakfast.  Clean &amp; quiet rooms.  Bed was worn (needs to be replaced) &amp; was not comfortable.  Used the hot tub (just a hot tub since the jets for jacquzzi were disconnected) and pool - used towels discarded randomly so it was obvious no one checked on the status periodically.  Public restroom is located in the pool area &amp; was a mess due to other guests using the pool.  Why would a hotel put the public restroom in the pool area??   Average breakfast.  Close to the freeway but very limited eating choices.  Disappointing stay &amp; less than what I've grown to expect from Comfort Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Our group stayed here 1 night on our way through Denver.  Free parking, free Wifi, free breakfast.  Clean &amp; quiet rooms.  Bed was worn (needs to be replaced) &amp; was not comfortable.  Used the hot tub (just a hot tub since the jets for jacquzzi were disconnected) and pool - used towels discarded randomly so it was obvious no one checked on the status periodically.  Public restroom is located in the pool area &amp; was a mess due to other guests using the pool.  Why would a hotel put the public restroom in the pool area??   Average breakfast.  Close to the freeway but very limited eating choices.  Disappointing stay &amp; less than what I've grown to expect from Comfort Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r466376739-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>466376739</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>A Friendly Port in a Storm</t>
+  </si>
+  <si>
+    <t>In early January my wife and I were driving west on the I70 through Denver when we heard that the mountain passes ahead were closed because of a storm. We bailed out and found this property by chance.  The receptionist was super friendly and helpful, our room was clean and comfortable and so on. There is a small park behind the property suitable for some exercise. A nice stroke of luck.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r464527572-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>464527572</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel due to doctor's visits for my husband.  The staff (Donna and Chris) at the Front Desk are so nice and helpful.  Staff was very helpful in making suggestions for dining or anything that you needed.  Loreen, General Manager, was very nice and even upgraded us to a larger room on our last visit.  The staff really makes you feel welcome.  Bed was comfortable.  We will definitely stay here again and will recommend.  Hotel very clean and has been recently been renovated.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r449390459-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>449390459</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>RUDE AND CROOKS</t>
+  </si>
+  <si>
+    <t>I have stayed at this property many times and the Manager has always been rude. I just played it off until my wife booked 3 rooms from hotel direct for a business trip. $109 a night until Friday which it went up to $129. We needed to add extra nights stay for each room. When doing so they said that we now were going to be charged $129 a night. each room. when she asked why she is not charged the higher rate Manager was very RUDE (i was setting next to wife) lady told her that they could do what they want and don't care if we stay there or not.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this property many times and the Manager has always been rude. I just played it off until my wife booked 3 rooms from hotel direct for a business trip. $109 a night until Friday which it went up to $129. We needed to add extra nights stay for each room. When doing so they said that we now were going to be charged $129 a night. each room. when she asked why she is not charged the higher rate Manager was very RUDE (i was setting next to wife) lady told her that they could do what they want and don't care if we stay there or not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r435423699-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>435423699</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Great Service; Price and Location</t>
+  </si>
+  <si>
+    <t>A really nice hotel. Clean, comfortable with amazing service. Staff extremely friendly. Great value. Good breakfast. Convenient location just west of downtown and west of I-25. Really enjoyed stay. Definitely will return next time in Denver.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r427092400-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>427092400</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>On a business trip and was satisfied with the location, pricing, friendly service and housekeeping. The breakfast served was alright. Had better and had worse. Front desk was very cheerful. Will stay again next time I am back in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r425960457-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>425960457</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Family visit</t>
+  </si>
+  <si>
+    <t>We stayed here on the recommendation of a nephew and were very satisfied. Service and staff were good. The room was more than adequate (but one only sleeps in a motel room). We were there 4 days and found the parking sometimes a walk from the front door but our thirsd floor room was fine.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r421013074-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>421013074</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Tolerable stay</t>
+  </si>
+  <si>
+    <t>Check in was easy and staff was friendly.  We stayed three nights to visit family and to participate in a motorcycle event. 
+   The room was clean, beds comfortable. The bathroom left much to be desired. There were no towel racks of any kind.  There was only a shelf under the sink for towels, not even a place to hang up a hand towel, which we found terribly inconvenient. The shower and toilet are in a separate room from the sink/vanity (no towel racks in there either, or shelves). This arrangement is terrible because one must be out in the room after a shower with no privacy and it is right in front of the door to the room.  Yikes.  By the way, if they want you to reuse your towels, which you should, they need to give you a rack to hang them on. The horribly LOUD fan in the bathroom must be on as it isn't separate from the light, and you have to have the (very dim) light on or it is pitch black with the door closed. There are no plugs in there for a nightlight either.  I couldn't put a nightlight by the sink because it lit up the whole room. This is no small thing if you travel a lot. 
+   The TV had a horrible grainy, snowy picture and NO network channels. No TV guide either and the channel guide on the TV was difficult...   Check in was easy and staff was friendly.  We stayed three nights to visit family and to participate in a motorcycle event.    The room was clean, beds comfortable. The bathroom left much to be desired. There were no towel racks of any kind.  There was only a shelf under the sink for towels, not even a place to hang up a hand towel, which we found terribly inconvenient. The shower and toilet are in a separate room from the sink/vanity (no towel racks in there either, or shelves). This arrangement is terrible because one must be out in the room after a shower with no privacy and it is right in front of the door to the room.  Yikes.  By the way, if they want you to reuse your towels, which you should, they need to give you a rack to hang them on. The horribly LOUD fan in the bathroom must be on as it isn't separate from the light, and you have to have the (very dim) light on or it is pitch black with the door closed. There are no plugs in there for a nightlight either.  I couldn't put a nightlight by the sink because it lit up the whole room. This is no small thing if you travel a lot.    The TV had a horrible grainy, snowy picture and NO network channels. No TV guide either and the channel guide on the TV was difficult to figure out. My husband got only a shrug from the clerk when he asked about the TV reception.    The air conditioner was extremely noisy.   On our second night's stay the elevator broke. We had to walk up three flights. To their credit, they had it repaired by morning.    We spent some time in the lobby meeting with family which was very nice with comfy chairs.     We will stay there again when they remodel the bathrooms, fix the noisy air conditioner and fan, and improve the TV reception.     The best thing about this hotel for us is its convenient location near family and freeways. MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was easy and staff was friendly.  We stayed three nights to visit family and to participate in a motorcycle event. 
+   The room was clean, beds comfortable. The bathroom left much to be desired. There were no towel racks of any kind.  There was only a shelf under the sink for towels, not even a place to hang up a hand towel, which we found terribly inconvenient. The shower and toilet are in a separate room from the sink/vanity (no towel racks in there either, or shelves). This arrangement is terrible because one must be out in the room after a shower with no privacy and it is right in front of the door to the room.  Yikes.  By the way, if they want you to reuse your towels, which you should, they need to give you a rack to hang them on. The horribly LOUD fan in the bathroom must be on as it isn't separate from the light, and you have to have the (very dim) light on or it is pitch black with the door closed. There are no plugs in there for a nightlight either.  I couldn't put a nightlight by the sink because it lit up the whole room. This is no small thing if you travel a lot. 
+   The TV had a horrible grainy, snowy picture and NO network channels. No TV guide either and the channel guide on the TV was difficult...   Check in was easy and staff was friendly.  We stayed three nights to visit family and to participate in a motorcycle event.    The room was clean, beds comfortable. The bathroom left much to be desired. There were no towel racks of any kind.  There was only a shelf under the sink for towels, not even a place to hang up a hand towel, which we found terribly inconvenient. The shower and toilet are in a separate room from the sink/vanity (no towel racks in there either, or shelves). This arrangement is terrible because one must be out in the room after a shower with no privacy and it is right in front of the door to the room.  Yikes.  By the way, if they want you to reuse your towels, which you should, they need to give you a rack to hang them on. The horribly LOUD fan in the bathroom must be on as it isn't separate from the light, and you have to have the (very dim) light on or it is pitch black with the door closed. There are no plugs in there for a nightlight either.  I couldn't put a nightlight by the sink because it lit up the whole room. This is no small thing if you travel a lot.    The TV had a horrible grainy, snowy picture and NO network channels. No TV guide either and the channel guide on the TV was difficult to figure out. My husband got only a shrug from the clerk when he asked about the TV reception.    The air conditioner was extremely noisy.   On our second night's stay the elevator broke. We had to walk up three flights. To their credit, they had it repaired by morning.    We spent some time in the lobby meeting with family which was very nice with comfy chairs.     We will stay there again when they remodel the bathrooms, fix the noisy air conditioner and fan, and improve the TV reception.     The best thing about this hotel for us is its convenient location near family and freeways. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r420539622-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>420539622</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Very Comfortable, friendly, but inattentive management</t>
+  </si>
+  <si>
+    <t>Stayed twice.  Comfortable room, good breakfast.  But apparently little oversight by management: --when cooked breakfast food ran out,  staff person was not aware of this and it took 10-15 minutes for more to be made ready.--coffee pot in lobby empty but front desk person unaware of this.Note: This is not a critique of the staff (who one assumes work hard for relatively low wages) but of management (or absence of same).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r414725151-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>414725151</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Would book this hotel again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for 1 night.  It is one of the better Comfort Inns in my opinion.  Hotel is clean and the staff are friendly.  The only thing that I can say needs improvement is the pool. It's a little too small but otherwise we were very satisfied with our stay here. Would book this hotel again if we ever go back. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r405078064-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>405078064</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Location Inn - Indoor pool, hot breakfast</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights.  Enjoyed stay.  Booked a room with a sofa couch but it was still a smaller room. Just the basics 2 beds and a couch bed + refig and microwave.  Hot breakfast good each day with basic scrambled eggs everyday with link sausage or bacon depending on the day. Also, waffles, cereal, juice, breads, coffee, hot water to go along with that.  The hotel is close to some 2 budget hotels and a holiday inn express.  It it also close to a park, dog park, and playground.  The location is nice because it was only a seconds away from i 70 and quick to basically anywhere in Denver.  Hotel was kinda smoky smellying in areas.  The indoor pool was nice kids enjoyed it.  Super close to super target, jack inn the box, panda express, taco bell, burger king. small parking lotMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights.  Enjoyed stay.  Booked a room with a sofa couch but it was still a smaller room. Just the basics 2 beds and a couch bed + refig and microwave.  Hot breakfast good each day with basic scrambled eggs everyday with link sausage or bacon depending on the day. Also, waffles, cereal, juice, breads, coffee, hot water to go along with that.  The hotel is close to some 2 budget hotels and a holiday inn express.  It it also close to a park, dog park, and playground.  The location is nice because it was only a seconds away from i 70 and quick to basically anywhere in Denver.  Hotel was kinda smoky smellying in areas.  The indoor pool was nice kids enjoyed it.  Super close to super target, jack inn the box, panda express, taco bell, burger king. small parking lotMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r398441959-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>398441959</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Comfort Inn - so comfortable</t>
+  </si>
+  <si>
+    <t>We upgraded to a 'suite' - just a little extra room for 4 adults sharing.  It was worth it!Rooms were great, beds very comfy, pillows of all sorts to choose from.  Ask for a room that is NOT on the highway side; just traffic noise.  Staff - top to bottom - always pleasant and helpful; ready to attend to every need.Lourine (sp?) is a GREAT manager! She runs a tight, well-oiled ship.  This is our 'go to' hotel when we're in Denver and need a great night's sleep with easy access to the highways.  Breakfast: full and delicious with lots of options.  Enjoy your stay!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r393738274-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>393738274</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>One of the better Comfort Inns</t>
+  </si>
+  <si>
+    <t>This comfort Inn looks freshly remodeled and has a very nice feel to it. The lobby is spacious and has nice touches such as fresh ice water available. The pool and jacuzzi area is clean and inviting. The rooms, as always, are nice and very clean, with a large and comfortable bed. My only real complaint about the room is, after having been remodeled, there is no place to hang towels. The towels are stacked under the sink outside of the bathroom, so if you forget to bring one with you when you shower you'll have to drip water into the bedroom. And, near the sink, there is again no place to hang your face towel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This comfort Inn looks freshly remodeled and has a very nice feel to it. The lobby is spacious and has nice touches such as fresh ice water available. The pool and jacuzzi area is clean and inviting. The rooms, as always, are nice and very clean, with a large and comfortable bed. My only real complaint about the room is, after having been remodeled, there is no place to hang towels. The towels are stacked under the sink outside of the bathroom, so if you forget to bring one with you when you shower you'll have to drip water into the bedroom. And, near the sink, there is again no place to hang your face towel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r389595540-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>389595540</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Bad bed but otherwise average hotel</t>
+  </si>
+  <si>
+    <t>We had a double-queen room on the north side of the second floor.  The room was on the small side but otherwise seemed about average for this sort of hotel.  Road noise was a little distracting since it's close to I-70 and we were on that side of the hotel. 
+But the bed was something else entirely.  The mattress must have been an old design--it was very hard and bounced and moved every time my wife rolled over.  neither of us slept well that night.  I thought Comfort Inn was supposed to be nicer than Quality Inn but the three Quality Inns we stayed in had much better beds than this one.  It was far and away the worst bed of the 10 I slept in during this trip.
+The parking was odd--a long, thin lot that stretches out behind the hotel's back door, making it an extra long hike to carry luggage in and out. I can't image what it must be like when the hotel is full and you have to hike out to the back 40 to get your car.
+The kids liked the pool, though we wished it was open later than 10pm.
+I think this was the most expensive hotel we stayed in on our trip and there were several little things that just weren't up to par.  Cheaper hotels elsewhere on our trip gave us better rooms, much better beds, better pools, and better...We had a double-queen room on the north side of the second floor.  The room was on the small side but otherwise seemed about average for this sort of hotel.  Road noise was a little distracting since it's close to I-70 and we were on that side of the hotel. But the bed was something else entirely.  The mattress must have been an old design--it was very hard and bounced and moved every time my wife rolled over.  neither of us slept well that night.  I thought Comfort Inn was supposed to be nicer than Quality Inn but the three Quality Inns we stayed in had much better beds than this one.  It was far and away the worst bed of the 10 I slept in during this trip.The parking was odd--a long, thin lot that stretches out behind the hotel's back door, making it an extra long hike to carry luggage in and out. I can't image what it must be like when the hotel is full and you have to hike out to the back 40 to get your car.The kids liked the pool, though we wished it was open later than 10pm.I think this was the most expensive hotel we stayed in on our trip and there were several little things that just weren't up to par.  Cheaper hotels elsewhere on our trip gave us better rooms, much better beds, better pools, and better parking.  If the room had been $20-30 cheaper, it would have been about right.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We had a double-queen room on the north side of the second floor.  The room was on the small side but otherwise seemed about average for this sort of hotel.  Road noise was a little distracting since it's close to I-70 and we were on that side of the hotel. 
+But the bed was something else entirely.  The mattress must have been an old design--it was very hard and bounced and moved every time my wife rolled over.  neither of us slept well that night.  I thought Comfort Inn was supposed to be nicer than Quality Inn but the three Quality Inns we stayed in had much better beds than this one.  It was far and away the worst bed of the 10 I slept in during this trip.
+The parking was odd--a long, thin lot that stretches out behind the hotel's back door, making it an extra long hike to carry luggage in and out. I can't image what it must be like when the hotel is full and you have to hike out to the back 40 to get your car.
+The kids liked the pool, though we wished it was open later than 10pm.
+I think this was the most expensive hotel we stayed in on our trip and there were several little things that just weren't up to par.  Cheaper hotels elsewhere on our trip gave us better rooms, much better beds, better pools, and better...We had a double-queen room on the north side of the second floor.  The room was on the small side but otherwise seemed about average for this sort of hotel.  Road noise was a little distracting since it's close to I-70 and we were on that side of the hotel. But the bed was something else entirely.  The mattress must have been an old design--it was very hard and bounced and moved every time my wife rolled over.  neither of us slept well that night.  I thought Comfort Inn was supposed to be nicer than Quality Inn but the three Quality Inns we stayed in had much better beds than this one.  It was far and away the worst bed of the 10 I slept in during this trip.The parking was odd--a long, thin lot that stretches out behind the hotel's back door, making it an extra long hike to carry luggage in and out. I can't image what it must be like when the hotel is full and you have to hike out to the back 40 to get your car.The kids liked the pool, though we wished it was open later than 10pm.I think this was the most expensive hotel we stayed in on our trip and there were several little things that just weren't up to par.  Cheaper hotels elsewhere on our trip gave us better rooms, much better beds, better pools, and better parking.  If the room had been $20-30 cheaper, it would have been about right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r383755027-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>383755027</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Newer place but parking is a little to be desired when full</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable.  The internet was intermittent.  The parking is not set up to allow all guests to stay close to the building.  Came in late and had to park clear to the back of the lot.  Didn't have any problems but it was pretty secluded and made me a little nervous that someone might break into the car.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r383368491-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>383368491</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Great accomidations for soccer teams</t>
+  </si>
+  <si>
+    <t>We traveled from California for our soccer tournament near by.   Booked a group of 10 rooms.  Great front desk that checked us in, despite an issue with our card at that time.   Clean overall, great indoor pool, the free breakfast did its job, and they accommodated our team well beyond expected.   Nice manager. Thank you Comfort Inn.  Would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r380092416-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>380092416</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Headed to gillette</t>
+  </si>
+  <si>
+    <t>Brighton was a little over 1/2 way to Gillette. Stopped and had supper with a cousin. Check inn was good. They identified me as a Gold member.1st room tv would not work. They checked and we were given another room.Rooms were clean, beds ok. Rooms are a little small, but adequate. Would stay again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r374684617-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>374684617</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>New hotel and good service.</t>
+  </si>
+  <si>
+    <t>There are many good things to talk about this hotel. the room is really nice, i stayed here for a week to visit my friends and my family and i had no problem with the hotel. I really enjoy and want to recommed this hotel to every one</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r372720900-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>372720900</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Great  place  to  stay  !</t>
+  </si>
+  <si>
+    <t>this  is  a  great  Hotel, newly remodeled  rooms  ,like  new. very  helpful  &amp;  friendlystaff , reasonable  prices ,  &amp;  great  location , with  nearby  grocery  stores &amp;  restaurants  ,  I-70  freeway   nearby  .  You will  like  it .</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r359139226-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>359139226</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>As expected.</t>
+  </si>
+  <si>
+    <t>Stayed here 1 night after flying into Denver, on our way to Vail. Hotel was just as expected from the Choice Hotel group. Friendly customer service, very clean hotel. Decent breakfast. Great price. Can't go wrong. Would stay again.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r352788740-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>352788740</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t>This hotel is far from Denver city. But it's near to industrial area.It's near the highway. 45-60 minute to Denver airport.The hotel is under construction. There is some odor inside the room.The wash basin is installed outside the toilet. The tea and coffee maker is on the wash basin area.The breakfast is is not variety.The indoor pool and sauna are on the 1st floor.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r352241808-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>352241808</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Good overnight stop</t>
+  </si>
+  <si>
+    <t>Flew into Denver from London, picked up car, and wanted to get as far west as I could before nightfall. There are a variety of hotels off I 70 at Wheat Ridge, but for a mix of price and quality, this was the obvious choice. Good, clean spacious room, helpful receptionist on check in, and a reasonable breakfast. Did all I expected and I would recommend the accomodation. The immediate area is pretty dire, all roads, a gas station, offices and the odd fast food place. The highway was close, but I was so tired I barely noticed</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r334949233-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>334949233</t>
+  </si>
+  <si>
+    <t>12/25/2015</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>We stayed for a week due to a hospice situation.  There was an indoor poo, exercise room and an excellent breakfast.  The room was well maintained and the beds were great.  The real benefit was the management and staff.  They did everything they could to make our stay as pleasant as possible.  I can't say enough about the service we received.   They were doing room renovation on the third floor and we were on the second floor and never heard any noise. Also it has very ease access.  We will always look  for a Comfort Inn in our travels.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r331927583-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>331927583</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Great place to sleep</t>
+  </si>
+  <si>
+    <t>After being at the hospital sleeping in a recliner for 5 days, I decided to get some real sleep. This place was perfect for that. Clean comfortable bed, room nice and quiet, &amp; staff totally knows how to treat the guests. I'm so glad we stayed here. Even though I was told they were renovating the third floor,  I never heard anything and never saw any mess.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r323538230-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>323538230</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>nice place to spend the night</t>
+  </si>
+  <si>
+    <t>Only one negative; no microwave in room. Web site says "microwave on request," but when we requested one the desk clerk said they had none.Other than this, the room was adequate, clean, and used limited space effectively. Breakfast was the usual fare for this level of hotel. Nice pool and hot tub. Lots of places to eat dinner within easy walking distance. The pool and hot tub area had hard wood walls and benches; nice touch. This is a pet friendly hotel and the best part of staying here was that it is adjacent to a municipal park that has lots of space for walking the dog at night and a big fenced area to let her go off leash and play with other dogs during daylight hours. SHe had a great time and so did we.It was also nice to see the cleanup crew go to work in the morning. By 9 there were cleaners everywhere  and the hotel showed the result; everything was spotless.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Only one negative; no microwave in room. Web site says "microwave on request," but when we requested one the desk clerk said they had none.Other than this, the room was adequate, clean, and used limited space effectively. Breakfast was the usual fare for this level of hotel. Nice pool and hot tub. Lots of places to eat dinner within easy walking distance. The pool and hot tub area had hard wood walls and benches; nice touch. This is a pet friendly hotel and the best part of staying here was that it is adjacent to a municipal park that has lots of space for walking the dog at night and a big fenced area to let her go off leash and play with other dogs during daylight hours. SHe had a great time and so did we.It was also nice to see the cleanup crew go to work in the morning. By 9 there were cleaners everywhere  and the hotel showed the result; everything was spotless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r312660091-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>312660091</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Well located near the interstate and restaurants</t>
+  </si>
+  <si>
+    <t>We stopped at the Comfort Inn in Wheat Ridge for one night on our way through to the Rockies. We arrived late, and just wanted to check in, get something to eat, and crash out in bed. I was pleased to see a smiling face on arrival in reception, and minutes later we were in our hotel room. There are several places within walking distance to eat (we chose the Village Inn), and the breakfast buffet was varied and tasty. This is a good place to stay.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r304669101-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>304669101</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Average stay at an average motel.</t>
+  </si>
+  <si>
+    <t>The usual motel room. Decent beds. I had to use my Garmon to locate the motel. Not easy to find. Friendly staff. Bed slept good but I was tired and almost anything would have been good. As my wife and I was finding out about most hotels, there was a lack of sufficient counter space.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r300679678-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>300679678</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Good Value Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is clean and convenient to both downtown Denver and Evergreen. We had a family wedding in Evergreen and drove up the mountain daily. It was an easy commute from the hotel. The hotel room was clean and comfortable though small. The free breakfast offered a good variety of breakfast foods. The staff was friendly and helpful. We wi stay again when in Denver.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r297596353-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>297596353</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>OK Hotel, Lackluster Staff</t>
+  </si>
+  <si>
+    <t>Booked from Priceline. I am not a picky hotel person as long as it is clean and comfortable. Hotel is a little dated, but not disgusting. Beds and rooms are comfortable. It is the staff I truly had an issue with. Upon arrival, the internet was down so they were unable to completely process our check-in, not an issue. We requested a KING bed, which was not what we received. We checked in at 3PM and there were not cars in the parking lot. We asked for them to see if they could give us a KING from a non-specified room, without looking they said this was not possible and they were sold out. Yes, we understand you are sold out but not necessarily out of KING rooms exclusively. The day we were supposed to check out, we decided to extend our stay one more night. Housekeeping came by and asked when we were checking out, we said 12 and they kept hounding the door asking when we were leaving. I wouldn't have had any problem with this except that the particular service staff women opted to loudly talk about how rude we were and continue to ramble about us in the hallway. This went on for 20 minutes. Later that afternoon, they were vacuuming the hallways, we noticed the sound was very very loud for a long time, they left the vacuum turned on in the hallway in front...Booked from Priceline. I am not a picky hotel person as long as it is clean and comfortable. Hotel is a little dated, but not disgusting. Beds and rooms are comfortable. It is the staff I truly had an issue with. Upon arrival, the internet was down so they were unable to completely process our check-in, not an issue. We requested a KING bed, which was not what we received. We checked in at 3PM and there were not cars in the parking lot. We asked for them to see if they could give us a KING from a non-specified room, without looking they said this was not possible and they were sold out. Yes, we understand you are sold out but not necessarily out of KING rooms exclusively. The day we were supposed to check out, we decided to extend our stay one more night. Housekeeping came by and asked when we were checking out, we said 12 and they kept hounding the door asking when we were leaving. I wouldn't have had any problem with this except that the particular service staff women opted to loudly talk about how rude we were and continue to ramble about us in the hallway. This went on for 20 minutes. Later that afternoon, they were vacuuming the hallways, we noticed the sound was very very loud for a long time, they left the vacuum turned on in the hallway in front of our room for about 5 minutes with no one nearby. Communication between front desk and staff was lacking caused confusion and frustration and inevitably caused a caustic situation between us and the staff. Not professional and not warranted.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked from Priceline. I am not a picky hotel person as long as it is clean and comfortable. Hotel is a little dated, but not disgusting. Beds and rooms are comfortable. It is the staff I truly had an issue with. Upon arrival, the internet was down so they were unable to completely process our check-in, not an issue. We requested a KING bed, which was not what we received. We checked in at 3PM and there were not cars in the parking lot. We asked for them to see if they could give us a KING from a non-specified room, without looking they said this was not possible and they were sold out. Yes, we understand you are sold out but not necessarily out of KING rooms exclusively. The day we were supposed to check out, we decided to extend our stay one more night. Housekeeping came by and asked when we were checking out, we said 12 and they kept hounding the door asking when we were leaving. I wouldn't have had any problem with this except that the particular service staff women opted to loudly talk about how rude we were and continue to ramble about us in the hallway. This went on for 20 minutes. Later that afternoon, they were vacuuming the hallways, we noticed the sound was very very loud for a long time, they left the vacuum turned on in the hallway in front...Booked from Priceline. I am not a picky hotel person as long as it is clean and comfortable. Hotel is a little dated, but not disgusting. Beds and rooms are comfortable. It is the staff I truly had an issue with. Upon arrival, the internet was down so they were unable to completely process our check-in, not an issue. We requested a KING bed, which was not what we received. We checked in at 3PM and there were not cars in the parking lot. We asked for them to see if they could give us a KING from a non-specified room, without looking they said this was not possible and they were sold out. Yes, we understand you are sold out but not necessarily out of KING rooms exclusively. The day we were supposed to check out, we decided to extend our stay one more night. Housekeeping came by and asked when we were checking out, we said 12 and they kept hounding the door asking when we were leaving. I wouldn't have had any problem with this except that the particular service staff women opted to loudly talk about how rude we were and continue to ramble about us in the hallway. This went on for 20 minutes. Later that afternoon, they were vacuuming the hallways, we noticed the sound was very very loud for a long time, they left the vacuum turned on in the hallway in front of our room for about 5 minutes with no one nearby. Communication between front desk and staff was lacking caused confusion and frustration and inevitably caused a caustic situation between us and the staff. Not professional and not warranted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r294457527-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>294457527</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Disgusting!</t>
+  </si>
+  <si>
+    <t>This hotel is dated and was the worst of all the Comfort Inns that we stayed in on our vacation. I lifted the mattress to check for bed bugs (it didn't appear too clean, hence checking for bugs) and I about gagged! There was hair galore and so much other unidentifiable gunk between the mattress' to gross anybody out. The box spring was stained very yellowish, more like urine stained and there was hair on the comforter between the sheet and bottom side of the comforter. I will NOT be staying here again. Ick!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r290757843-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>290757843</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Good Location, Clean, Comfortable</t>
+  </si>
+  <si>
+    <t>Check in and out was easy. Room was clean, comfortable, bathroom clean. Hotel is within walking distance of a basic family restaurant or other eating places are a short drive away. Hotel is beside a park with a playground for children. There is an indoor pool.Breakfast had a variety of hot and cold items.I'd definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r284815744-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>284815744</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Everything was good here.  Good bedding, good and quiet A/C. Rooms were quiet.  Pool was nice and a bit warm but better than cold. Very quiet Hotel.  Typical Comfort Inn breakfast. Google gave us wrong directions on the north side of the Freeway. This hotel is on the south side of the freeway on the frontage road.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r282498032-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>282498032</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Don't book an Accessible room unless absolutely necessary</t>
+  </si>
+  <si>
+    <t>This is an older Comfort Inn, with the new lighting updates.   The room itself was rather small - you can't walk from one side of the bed to the other if the "mini-desk" is being used, and this is an "accessible" room!  The walk in shower has no place to put the soap or anything else. A big FAIL on "accessibility".  The check in "dude" is cool and friendly.  Breakfast is nothing special - basic Comfort Inn issue.  Lots of laser printed "don't do this" type signs everywhere.  Handicapped parking is nowhere near any door because of the property arrangement. Is it worth $120+?  Not next time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r281691635-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>281691635</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Outstanding customer service!!!!!!</t>
+  </si>
+  <si>
+    <t>What a great experience!  After traveling the entire day and night before our arrival, the staff went the extra mile to get us checked in early!!!!  Loreen, the GM, and her staff did everything possible to get us into our room early in the morning even though check in is normally 3 pm or later.  Even without an advance reservation, and being fully booked the night before, they got it done.  Everyone was extremely friendly and helped us with local information and recommended food places.  Super customer service!  Thanks to all on the staff!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r278471775-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>278471775</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>one night stay</t>
+  </si>
+  <si>
+    <t>This was our first stay at this hotel, we always stay at Comfort Inns. The staff was very friendly and helpful, you did great. Our only complaint, and its a big problem to us, is that the breakfast area is way to small. I understand that the hotel was booked full (we have stayed at plenty that have also been full), it doesn't seem right that some of us had to take our breakfast to our rooms to eat, we saw many people caring their food back to the rooms like we had to, even the lobby was full of breakfast eaters. I have never had to do that with a other Comfort Inn. I'm sorry to say, but the next time we visit the Denver area we will not stay here, unless we find out that the breakfast area gets bigger with more places to sit.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This was our first stay at this hotel, we always stay at Comfort Inns. The staff was very friendly and helpful, you did great. Our only complaint, and its a big problem to us, is that the breakfast area is way to small. I understand that the hotel was booked full (we have stayed at plenty that have also been full), it doesn't seem right that some of us had to take our breakfast to our rooms to eat, we saw many people caring their food back to the rooms like we had to, even the lobby was full of breakfast eaters. I have never had to do that with a other Comfort Inn. I'm sorry to say, but the next time we visit the Denver area we will not stay here, unless we find out that the breakfast area gets bigger with more places to sit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r274901222-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>274901222</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Stay here before a Business meeting the next day</t>
+  </si>
+  <si>
+    <t>This is a nice quiet hotel, the beds are soft and confrontable. The bathrooms are large with room to move around, The breakfast area is also large and the breakfast was super yummy, was lots better than most the breakfasts that you get at all the other hotels. The choices on the day that I stayed there were bisqutes and gravey and scrambled egges, plus you had your choice to make waffles and they had hard boiled eggs, and a variety of hot and cold cereals and breads. I will plan on staying here again when I am in the Denver area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r260760324-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>260760324</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Excellence</t>
+  </si>
+  <si>
+    <t>Best motel we have stayed in a long time.  Rooms were clean, hallways were quiet, and breakfast was great!  Each morning the breakfast room had different foods, everything was well-stocked as well.  The pool was a great temperature, we had to pull our two year-old out every night when they closed.  We had a room on the 3rd floor, odd numbered and we had a nice view of the park &amp; mountains.  Just behind the motel, there is a park with all kinds of equipment for kids to play on.  Nice, quiet location near Denver but not in the craziness of Denver.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r256259168-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>256259168</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Room was clean, pillows was same as all other hotels, which in my opinion need more stuffing. Towels was fine. But 3 of the lights in our room didn't work. It didn't bother us since we was just sleeping there 1 night. Breakfast was ok if you like a southwestern style omelet. The bacon was decent, the pastries I had was ok. I would stay again if passing through.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r249880057-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>249880057</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>Great place for business travelers!</t>
+  </si>
+  <si>
+    <t>I stayed three days at the Comfort Inn. I needed a quiet place to work on a project that required all my attention. I couldn't have picked a better place. From the cheerful and professional young lady that checked me in (she even sold me on breakfast), to the friendly and helpful breakfast attendants, smiling housekeepers and efficient front desk at checkout it was a very pleasant stay. My room was quite clean and, important for me, quiet. Internet service was nice and fast as I was doing a good deal of research. I had the "Do Not Disturb" sign on my door while I was working and was surprised to find a note from the housekeeper when I went out that they do no go into rooms with do not disturb signs but, if I needed anything just call the front desk. That's a nice touch! I'm not much of a breakfast eater but, after the inviting description from the front desk person, I decided to give it a try. It was good, well stocked and clean. In the course of three days there were different items on the hot buffet each day. A little variation is nice when you're staying longer than a day.The location was really convenient right on I-70 close to many shopping areas and a quick trip in to downtown Denver.Over all, this is a really good hotel for the business traveler!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I stayed three days at the Comfort Inn. I needed a quiet place to work on a project that required all my attention. I couldn't have picked a better place. From the cheerful and professional young lady that checked me in (she even sold me on breakfast), to the friendly and helpful breakfast attendants, smiling housekeepers and efficient front desk at checkout it was a very pleasant stay. My room was quite clean and, important for me, quiet. Internet service was nice and fast as I was doing a good deal of research. I had the "Do Not Disturb" sign on my door while I was working and was surprised to find a note from the housekeeper when I went out that they do no go into rooms with do not disturb signs but, if I needed anything just call the front desk. That's a nice touch! I'm not much of a breakfast eater but, after the inviting description from the front desk person, I decided to give it a try. It was good, well stocked and clean. In the course of three days there were different items on the hot buffet each day. A little variation is nice when you're staying longer than a day.The location was really convenient right on I-70 close to many shopping areas and a quick trip in to downtown Denver.Over all, this is a really good hotel for the business traveler!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r245765756-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>245765756</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>Right along I-70</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel about 5 times over the last few years and it's always been a positive experience.  The location is right along the interstate with a Taco Bell very close by (which is a plus for my teenagers). There is also a Target about a mile north.  Internet speed is great.  The room was clean and the staff was friendly.  I feel like this place is a good value for the stay we experienced.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r240719614-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>240719614</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>WOW! What great staff!</t>
+  </si>
+  <si>
+    <t>I cannot say enough about Chris at the front desk. Helpful, friendly, sharp and a real nice face to see at the end of the day. I have taken a job in Denver while still living in Breckenridge and being in a new city I really needed a guide. I have run front desks in the past and know how challenging the position is.He is irreplaceable. Well done Comfort Inn...well done.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r240157544-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>240157544</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Quiet off the Interstate</t>
+  </si>
+  <si>
+    <t>If you're headed East, this is a good stop on the West end of Denver and you can't hear the cars on I70 which is right there. Pool, pet friendly and a park behind the hotel. Taco Bell and a V.I. are next door. Liquor store and gas stations just up Kipling Ave. to the south. Hotel room is great if you get a view of the park, and morning sunshine. Breakfast was great, clean room and courteous staff. Room rates are going up , so I'd say $100 bucks is average price pretty much anymore. Yes, we'd stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r235640641-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>235640641</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Nice Place Bad Location!</t>
+  </si>
+  <si>
+    <t>This is a nice hotel, but not in a very good location.The rooms are a little small. Overall they are well maintained. The staff is great! Very friendly and helpful.Breakfast is average at best not much to choose from.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r224647054-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>224647054</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>This hotel gets a mixed review</t>
+  </si>
+  <si>
+    <t>I would like to start by saying that the person who checked us in, Virginia, was very nice.  She provided really good customer service. Unfortunately, this wasn't our favorite Comfort Inn experience.  The pool and hot tub were not very clean (we love to visit the hot tub, so this was disappointing). The beds were a bit too hard for my comfort. The fan in the bathroom was extremely loud - so loud that we decided to not use it as much as we were able. Breakfast was decent, but they could probably use more than one waffle maker, as the line for that was pretty long when we were there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I would like to start by saying that the person who checked us in, Virginia, was very nice.  She provided really good customer service. Unfortunately, this wasn't our favorite Comfort Inn experience.  The pool and hot tub were not very clean (we love to visit the hot tub, so this was disappointing). The beds were a bit too hard for my comfort. The fan in the bathroom was extremely loud - so loud that we decided to not use it as much as we were able. Breakfast was decent, but they could probably use more than one waffle maker, as the line for that was pretty long when we were there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r224183090-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>224183090</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>A Great Value</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights while attending a funeral at Fort Logan.  The room was spotless both in the bedroom area and the bathroom.  In fact the entire facility and grounds were very clean.  Our room was on the second floor overlooking the park (south facing) and very quiet.  The beds were very comfortable.  There was a refrigerator in the room and the air conditioning worked great.  The bathroom was well lit, with lots of counter space.  Both the shower and toilet had great water pressure.  The towels were in good condition and there were plenty of them.The motel is easily located with convenient access to the interstate (but without any freeway noise) with restaurants and gas stations nearby.We found both the evening and daytime staff to be very friendly, polite and accommodating.  The breakfast was delicious and well-stocked, with plenty of seating.We were delighted with our stay and wouldn't hesitate to stay here again when in the Denver area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights while attending a funeral at Fort Logan.  The room was spotless both in the bedroom area and the bathroom.  In fact the entire facility and grounds were very clean.  Our room was on the second floor overlooking the park (south facing) and very quiet.  The beds were very comfortable.  There was a refrigerator in the room and the air conditioning worked great.  The bathroom was well lit, with lots of counter space.  Both the shower and toilet had great water pressure.  The towels were in good condition and there were plenty of them.The motel is easily located with convenient access to the interstate (but without any freeway noise) with restaurants and gas stations nearby.We found both the evening and daytime staff to be very friendly, polite and accommodating.  The breakfast was delicious and well-stocked, with plenty of seating.We were delighted with our stay and wouldn't hesitate to stay here again when in the Denver area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r221887334-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>221887334</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>Not happy</t>
+  </si>
+  <si>
+    <t>Hotel staff is not the most friendly. It seems like they don't have their act together. I ask the a question and get different answers depending on who you ask. I then asked to speak to a manager and was told she would be in between 6 -7 a.m. another staff member said after 9. I then left my cell and asked that she call me so I could get an answer to my question. Well, 3 days are gone now and STILL no call! I will never stay at this hotel again and might challenge the charge on my credit card if they charge me for the day I wasn't there. Customer Service training is definitely needed!!!On a side note, the room was clean but the bed was not that comfortable!MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel staff is not the most friendly. It seems like they don't have their act together. I ask the a question and get different answers depending on who you ask. I then asked to speak to a manager and was told she would be in between 6 -7 a.m. another staff member said after 9. I then left my cell and asked that she call me so I could get an answer to my question. Well, 3 days are gone now and STILL no call! I will never stay at this hotel again and might challenge the charge on my credit card if they charge me for the day I wasn't there. Customer Service training is definitely needed!!!On a side note, the room was clean but the bed was not that comfortable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r214415034-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>214415034</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Great location and quiet</t>
+  </si>
+  <si>
+    <t>Our room was quite comfortable and very clean. While we could see I-70 from our room, noise was not a problem. Breakfast was good with hot items available. We did wish that they had bananas. The pool and hot tub are indoors. The hot tub seemed to be a bit too hot, and the jets were very weak. WiFi was excellent. Although we did not eat at any of the nearby restaurants, there were some within walking distance.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r213096611-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>213096611</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Great location, clean rooms, good sleep</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location right off the highway. The 2nd shift guy (Tim?) who checked us in was very friendly and cheerful. The room was clean and very quiet. We slept very well. Bit of advice, if you want a quiet room ask for one on the 2nd floor and near the stairway at the back of the hotel. My boyfriend had asked for a quiet room, and even though the place looked sold out and it was later at night when we checked in...we got a very quiet room. We would stay here again.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r208750768-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>208750768</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Stayed to visit family</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel to visit our daughter. It was close to what we needed and room was clean and we were on the side next to the park. Close to I-70, but on that side we could not hear the noise. Will most likely stay here again next year when we come to visit. Found a Super Target on the other side of the interstate which was great for anything you needed.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r207019613-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>207019613</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Friendly Wheat Ridge Staff</t>
+  </si>
+  <si>
+    <t>The staff is very helpful and friendly, but be prepared to wait. It can be busy! You'll see the crowds again at breakfast!  Our room was clean and quiet.  A second chair would have been nice.  Being on the third floor meant we had a lovely view of the foothills.  The elevator only broke down once and was repaired quickly.  Our computer does not work there.  The front desk gave us the help number in India this time, but after 30 minutes on the phone, our computer still did not work.  It does work at other hotels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r204605832-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>204605832</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Wanted a Jacuzzi; got a tub of hot water</t>
+  </si>
+  <si>
+    <t>After a very long day of driving, we just wanted to sit in the Jacuzzi. Got down there and it was just a tub of hot water, even though there were jets. My husband asked the guy at the front desk why the jets weren't working and he said, "Oh, it's  not a Jacuzzi. It's just a hot tub." Bull. For that I could have stayed in the room and soaked in the tub. Other than that, it was a nice place to stay, pretty much the average Comfort Inn: clean, comfortable, and quiet, which is all we require.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r203510258-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>203510258</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Poor management</t>
+  </si>
+  <si>
+    <t>I choose this Hitel because it was near my sons house and had an indoor pool. First night the pool was closed. The second night, the pool was closed again and my room was full of smoke from a guest smoking weed. I complained to staff that it was coming into my room. His question to me was "where did I think it was coming from"???? I had a headache was nauseated and hate the smell of weed, especially since I was in a smoke free hotel. I complained the day I checked out, left a note to the manager and did not receive a call. I called back and was told that the manager said "she thinks it's fair to take $40.00 off your bill". Hmmm, they charge an extra $200.00 if they identify a guest smoking in the room and the guest who became sick... $40.00 off the bill is fair. Not even a call even after I called the second time and sent an email. They own 7 hotels, one in Walla Walla, Wa another state where smoking weed is legal so go if you smoke weed, otherwise... Go some place else. MoreShow less</t>
+  </si>
+  <si>
+    <t>I choose this Hitel because it was near my sons house and had an indoor pool. First night the pool was closed. The second night, the pool was closed again and my room was full of smoke from a guest smoking weed. I complained to staff that it was coming into my room. His question to me was "where did I think it was coming from"???? I had a headache was nauseated and hate the smell of weed, especially since I was in a smoke free hotel. I complained the day I checked out, left a note to the manager and did not receive a call. I called back and was told that the manager said "she thinks it's fair to take $40.00 off your bill". Hmmm, they charge an extra $200.00 if they identify a guest smoking in the room and the guest who became sick... $40.00 off the bill is fair. Not even a call even after I called the second time and sent an email. They own 7 hotels, one in Walla Walla, Wa another state where smoking weed is legal so go if you smoke weed, otherwise... Go some place else. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r194967149-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>194967149</t>
+  </si>
+  <si>
+    <t>02/22/2014</t>
+  </si>
+  <si>
+    <t>Walls very very thin</t>
+  </si>
+  <si>
+    <t>The people are very nice but the walls a VERY thin.  We heard the conversations from our neighbors, not just a murmur but the actual words let alone the noise from the hallway.  The breakfast has a number of choices but no meat.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r192807914-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>192807914</t>
+  </si>
+  <si>
+    <t>02/01/2014</t>
+  </si>
+  <si>
+    <t>Not a Happy Camper !</t>
+  </si>
+  <si>
+    <t>Let me start by saying I have stayed at this facility before and found it to be satisfactory for my overnight needs. Nothing fancy but what I would call your run of the mill hotel room. This stay I rented two rooms. Our room was larger than most standard rooms and other than being dated was adequate. Our guests in the other room said it was ok.The breakfast was what one would expect from a chain hotel. I would have rated this hotel as average but for the fact of the errors made on my billing and the follow up by management. I rate my overall experience as poor. Two days after check out my wife discovered that our credit card had two temporary holds put on it for a total of a little over $1200.00! After a call to the hotel explaining what had happened and looking for an explanation, we were told there was not a manager on duty and we would be contacted. Later that day my wife was called by someone named Andrea who said something about a employee with a lack of training getting our room mixed up with an extended stay guest and she would see to it that the issue would be taken care of and left her contact number. Two days later one of the holds had been removed from our account but the larger of the two was still showing up....Let me start by saying I have stayed at this facility before and found it to be satisfactory for my overnight needs. Nothing fancy but what I would call your run of the mill hotel room. This stay I rented two rooms. Our room was larger than most standard rooms and other than being dated was adequate. Our guests in the other room said it was ok.The breakfast was what one would expect from a chain hotel. I would have rated this hotel as average but for the fact of the errors made on my billing and the follow up by management. I rate my overall experience as poor. Two days after check out my wife discovered that our credit card had two temporary holds put on it for a total of a little over $1200.00! After a call to the hotel explaining what had happened and looking for an explanation, we were told there was not a manager on duty and we would be contacted. Later that day my wife was called by someone named Andrea who said something about a employee with a lack of training getting our room mixed up with an extended stay guest and she would see to it that the issue would be taken care of and left her contact number. Two days later one of the holds had been removed from our account but the larger of the two was still showing up. Call's to Andrea for the next two days went to voice mail and we never did hear back from her. Ultimately the other charge was released 10 days after this all started. My point is that this never should have happened in the first place and it should have been handled in a more timely and professional manor. This did not effect my financial status however this could cause a major problem for someone with a limited amount of money on one credit card only to find out they couldn't use it for 10 days because all their funds were tied up due to  the incompetence of the staff at this Comfort Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Let me start by saying I have stayed at this facility before and found it to be satisfactory for my overnight needs. Nothing fancy but what I would call your run of the mill hotel room. This stay I rented two rooms. Our room was larger than most standard rooms and other than being dated was adequate. Our guests in the other room said it was ok.The breakfast was what one would expect from a chain hotel. I would have rated this hotel as average but for the fact of the errors made on my billing and the follow up by management. I rate my overall experience as poor. Two days after check out my wife discovered that our credit card had two temporary holds put on it for a total of a little over $1200.00! After a call to the hotel explaining what had happened and looking for an explanation, we were told there was not a manager on duty and we would be contacted. Later that day my wife was called by someone named Andrea who said something about a employee with a lack of training getting our room mixed up with an extended stay guest and she would see to it that the issue would be taken care of and left her contact number. Two days later one of the holds had been removed from our account but the larger of the two was still showing up....Let me start by saying I have stayed at this facility before and found it to be satisfactory for my overnight needs. Nothing fancy but what I would call your run of the mill hotel room. This stay I rented two rooms. Our room was larger than most standard rooms and other than being dated was adequate. Our guests in the other room said it was ok.The breakfast was what one would expect from a chain hotel. I would have rated this hotel as average but for the fact of the errors made on my billing and the follow up by management. I rate my overall experience as poor. Two days after check out my wife discovered that our credit card had two temporary holds put on it for a total of a little over $1200.00! After a call to the hotel explaining what had happened and looking for an explanation, we were told there was not a manager on duty and we would be contacted. Later that day my wife was called by someone named Andrea who said something about a employee with a lack of training getting our room mixed up with an extended stay guest and she would see to it that the issue would be taken care of and left her contact number. Two days later one of the holds had been removed from our account but the larger of the two was still showing up. Call's to Andrea for the next two days went to voice mail and we never did hear back from her. Ultimately the other charge was released 10 days after this all started. My point is that this never should have happened in the first place and it should have been handled in a more timely and professional manor. This did not effect my financial status however this could cause a major problem for someone with a limited amount of money on one credit card only to find out they couldn't use it for 10 days because all their funds were tied up due to  the incompetence of the staff at this Comfort Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r191712237-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>191712237</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>It felt like home!</t>
+  </si>
+  <si>
+    <t>We chose this motel after canceling reservations in a very upscale motel in Golden after being misled about the "pet friendly" ad.  Fate had a hand in this chance meeting is all I can say.  Service was excellent, room was clean, comfortable and quiet.  The lobby and grounds were clean and inviting.  Very convenient location, right off Interstate 70.  We had a little dog that the staff treated like royalty!  They watched her while we attended the Denver football game and gave us piece of mind she would be well cared for and she definitely was.  The manager and front desk staff treated us like family and I will be forever grateful.  Having a dog park/walking park behind the motel was a huge bonus.  Our last stay in the Denver area a few months earlier was at a very popular and very pricey hotel in downtown Denver, that hotel could never compare to the quality of service and comfort we had at your hotel.  We live in New Mexico and travel to Denver 3-4 times a year, we will never consider staying anywhere but this motel.  Finally, your staff is second to none in customer service and I want to thank them all for a most enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>We chose this motel after canceling reservations in a very upscale motel in Golden after being misled about the "pet friendly" ad.  Fate had a hand in this chance meeting is all I can say.  Service was excellent, room was clean, comfortable and quiet.  The lobby and grounds were clean and inviting.  Very convenient location, right off Interstate 70.  We had a little dog that the staff treated like royalty!  They watched her while we attended the Denver football game and gave us piece of mind she would be well cared for and she definitely was.  The manager and front desk staff treated us like family and I will be forever grateful.  Having a dog park/walking park behind the motel was a huge bonus.  Our last stay in the Denver area a few months earlier was at a very popular and very pricey hotel in downtown Denver, that hotel could never compare to the quality of service and comfort we had at your hotel.  We live in New Mexico and travel to Denver 3-4 times a year, we will never consider staying anywhere but this motel.  Finally, your staff is second to none in customer service and I want to thank them all for a most enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r187328564-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>187328564</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>Comfort Inn's name says it all!</t>
+  </si>
+  <si>
+    <t>I have stayed here a number of times in late 2011 and early 2012 while taking care of my parents' estate, cleaning and selling their home, etc. Needless to say, these trips were sad and difficult. Wheat Ridge's Comfort Inn was such a warm and truly comforting place to return to after a day of depressing work. The managers whom I met at various times were all so friendly and helpful. The lobby was always nicely and seasonally decorated with the convenience of coffee, a computer and printer, comfortable couches and a fireplace. The rooms were always clean with a very comfortable bed. The breakfast had lots of choices, including hot entrees. The property is next to a park so there is a nice walking track. We just stayed here again in Nov. 2013, and the quality is still excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I have stayed here a number of times in late 2011 and early 2012 while taking care of my parents' estate, cleaning and selling their home, etc. Needless to say, these trips were sad and difficult. Wheat Ridge's Comfort Inn was such a warm and truly comforting place to return to after a day of depressing work. The managers whom I met at various times were all so friendly and helpful. The lobby was always nicely and seasonally decorated with the convenience of coffee, a computer and printer, comfortable couches and a fireplace. The rooms were always clean with a very comfortable bed. The breakfast had lots of choices, including hot entrees. The property is next to a park so there is a nice walking track. We just stayed here again in Nov. 2013, and the quality is still excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r185619293-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>185619293</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>This is a nice, suburban north Denver hotel, with convenient access to I-70.  Lots of restaurants close by.  To quote Garrison Keillor, " \Pretty good goods."  No rude or unpleasant surprises here.  Bed was comfortably firm, room was clean, quiet atmosphere.  Breakfast typical of middle priced inns. Elevator off lobby.  Employees were cordial. A pleasant stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r180126544-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>180126544</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We arrived in town later in the evening after a 13 hour drive and were looking for a hot shower and a comfy bed to sleep in. This hotel provided all of the above. The breakfast was great, the room was clean, the bed was comfy and the price was right.  The only issue we had was that the TV only for one channel...but we were too tired to watch TV, so it was okay.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r166060588-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>166060588</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>Good hotel in a good location</t>
+  </si>
+  <si>
+    <t>My wife and I stayed 6 nights here in June of 2013. The 3 floor hotel is located right off of I-70. We requested and were given a park side room on the third floor. The hotel overlooks the Fruitdale Park. The park has a fenced in, off-leash dog area. It was fun to watch the dogs running around and playing from our room. The park has a walking path that is about 1/2 mile around in length. 
+On to the hotel. Check in went very quickly with our clerk noting that I was a Choice Privileges Elite Gold member. Good job on his part. Our room, 314, had 2 queen beds, a refrigerator but no microwave. The room was clean and large and had plenty of electrical outlets. We never did turn on the flat screen TV. The sink was outside the tub and toilet room. I had never noticed before how handy that is in that I could be showering while my wife could finish her routine at the sink. The fan over the tub was not working. We went down to the front desk after we checked in to let them know. By the time we came back from the days activities, the fan had been fixed. I was surprised it was done so fast on a Sunday. Good job. Monday, I noticed that a bulb was missing out of the desk lamp. I left a note...My wife and I stayed 6 nights here in June of 2013. The 3 floor hotel is located right off of I-70. We requested and were given a park side room on the third floor. The hotel overlooks the Fruitdale Park. The park has a fenced in, off-leash dog area. It was fun to watch the dogs running around and playing from our room. The park has a walking path that is about 1/2 mile around in length. On to the hotel. Check in went very quickly with our clerk noting that I was a Choice Privileges Elite Gold member. Good job on his part. Our room, 314, had 2 queen beds, a refrigerator but no microwave. The room was clean and large and had plenty of electrical outlets. We never did turn on the flat screen TV. The sink was outside the tub and toilet room. I had never noticed before how handy that is in that I could be showering while my wife could finish her routine at the sink. The fan over the tub was not working. We went down to the front desk after we checked in to let them know. By the time we came back from the days activities, the fan had been fixed. I was surprised it was done so fast on a Sunday. Good job. Monday, I noticed that a bulb was missing out of the desk lamp. I left a note for housekeeping and the bulb was replaced before we got back that evening. The pool looked clean but we did not use it. The breakfast was good with the usual faire of waffles, eggs, etc. The eating area was in room that is locked until feeding time. The room was not unlocked until exactly 6:00 am so no early eating. There was an elevator but we never used it. There was plenty of parking on the grounds. Check out was fast and accurate and we would return again. Ken KorenLa Grange Park, ILMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed 6 nights here in June of 2013. The 3 floor hotel is located right off of I-70. We requested and were given a park side room on the third floor. The hotel overlooks the Fruitdale Park. The park has a fenced in, off-leash dog area. It was fun to watch the dogs running around and playing from our room. The park has a walking path that is about 1/2 mile around in length. 
+On to the hotel. Check in went very quickly with our clerk noting that I was a Choice Privileges Elite Gold member. Good job on his part. Our room, 314, had 2 queen beds, a refrigerator but no microwave. The room was clean and large and had plenty of electrical outlets. We never did turn on the flat screen TV. The sink was outside the tub and toilet room. I had never noticed before how handy that is in that I could be showering while my wife could finish her routine at the sink. The fan over the tub was not working. We went down to the front desk after we checked in to let them know. By the time we came back from the days activities, the fan had been fixed. I was surprised it was done so fast on a Sunday. Good job. Monday, I noticed that a bulb was missing out of the desk lamp. I left a note...My wife and I stayed 6 nights here in June of 2013. The 3 floor hotel is located right off of I-70. We requested and were given a park side room on the third floor. The hotel overlooks the Fruitdale Park. The park has a fenced in, off-leash dog area. It was fun to watch the dogs running around and playing from our room. The park has a walking path that is about 1/2 mile around in length. On to the hotel. Check in went very quickly with our clerk noting that I was a Choice Privileges Elite Gold member. Good job on his part. Our room, 314, had 2 queen beds, a refrigerator but no microwave. The room was clean and large and had plenty of electrical outlets. We never did turn on the flat screen TV. The sink was outside the tub and toilet room. I had never noticed before how handy that is in that I could be showering while my wife could finish her routine at the sink. The fan over the tub was not working. We went down to the front desk after we checked in to let them know. By the time we came back from the days activities, the fan had been fixed. I was surprised it was done so fast on a Sunday. Good job. Monday, I noticed that a bulb was missing out of the desk lamp. I left a note for housekeeping and the bulb was replaced before we got back that evening. The pool looked clean but we did not use it. The breakfast was good with the usual faire of waffles, eggs, etc. The eating area was in room that is locked until feeding time. The room was not unlocked until exactly 6:00 am so no early eating. There was an elevator but we never used it. There was plenty of parking on the grounds. Check out was fast and accurate and we would return again. Ken KorenLa Grange Park, ILMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r165182028-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>165182028</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Very Nice !</t>
+  </si>
+  <si>
+    <t>Hotel is easy to find.  Very Nice accommodations, prices reasonable.  Staff very friendly.  Rooms exceptionally clean. Continental Breakfast very inviting, many options to choose from.  Would definitely stay again and recommend to anyone</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r163323746-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>163323746</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff and inviting atmosphere</t>
+  </si>
+  <si>
+    <t>We were checked in by a quirky, but very nice, young man. I'm sorry I can't remember his name anymore, but he was helpful and funny.The lobby here is very pretty and looks like a ski lodge or cabin. The room was nice, and they have laundry facilities with a comfy chair to sit in while you wait for your laundry.  The location was convenient, and everything was up to par.We would recommend this hotel and would stay there again if we were in the area!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r160004057-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>160004057</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>A Sure Bet and a Bonus</t>
+  </si>
+  <si>
+    <t>The comfort Inn in Wheatridge Colorado is an excellent example of the Choice Hotels breed. Good location, nice property with good upkeep and an above average staff. The good news is that there were no surprises either positive or negative. You get exactly what you pay for and this is a good thing. To be certain on a road trip is in itself a big positive. I do not know about you but I do not like surprises on the road. They tend to be more negative in my experience than positive. The bonus on this trip is a half mile away and called 3 Margaritas. It is a great Mexican restaurant with a band, good food, and you guessed it, excellent margaritas. So...solid hotel and great local restaurants. Not bad at all if you ask me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrea G, Director of Sales at Comfort Inn Denver West, responded to this reviewResponded June 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2013</t>
+  </si>
+  <si>
+    <t>The comfort Inn in Wheatridge Colorado is an excellent example of the Choice Hotels breed. Good location, nice property with good upkeep and an above average staff. The good news is that there were no surprises either positive or negative. You get exactly what you pay for and this is a good thing. To be certain on a road trip is in itself a big positive. I do not know about you but I do not like surprises on the road. They tend to be more negative in my experience than positive. The bonus on this trip is a half mile away and called 3 Margaritas. It is a great Mexican restaurant with a band, good food, and you guessed it, excellent margaritas. So...solid hotel and great local restaurants. Not bad at all if you ask me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r159305686-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>159305686</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I started a new job and couldn't move into my apartment for a week so I stayed at the Comfort Inn. I had stayed there when I came for my second interview and that is why I chose the Comfort Inn. It was perfect for me. The room was clean when I came back and well stocked. A fridge in the room and continental breakfast in the morning. The computer in the lobby came in handy when I could not access a particular site I needed. I did not try the pool or hot tub but others seemed to enjoy it. Front desk staff were always friendly. I would definitely recommend the Comfort Inn in Wheat Ridge. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I started a new job and couldn't move into my apartment for a week so I stayed at the Comfort Inn. I had stayed there when I came for my second interview and that is why I chose the Comfort Inn. It was perfect for me. The room was clean when I came back and well stocked. A fridge in the room and continental breakfast in the morning. The computer in the lobby came in handy when I could not access a particular site I needed. I did not try the pool or hot tub but others seemed to enjoy it. Front desk staff were always friendly. I would definitely recommend the Comfort Inn in Wheat Ridge. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r152748424-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>152748424</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>VERY DISAPOINTED</t>
+  </si>
+  <si>
+    <t>I checked in on feb. 17, stayed at the comfort inn because it is a choice hotel, and im a choice employee. walked in, no one was at the front desk. Understandable probably doing laundry or other front desk duties. Rang bell, guy came out (no welcome or apology for not being at the desk.) I asked to check in and gave him my information. guy was snappy and rude. understanding that he was probably at the end of his shift i let it go. Explained to him that i wanted to pay cash and that I ABSOLUTLY DIDNT WANT THE CARD CHARGED. he said i could pay cash in the morning. ok thats fine. card got charged that night. Went up to the room realised that the batterys in the remote werent good, and decided to go back down to the front desk and have them replaced rather then having him come up. to be nice. Went down and asked for batteries. he didnt have any batteriys didnt have a spare remote. didnt offer to do anything to help with the situation. and was extreamly rude the entire time. Very annoyed by now decided to just go back up stairs and go to bed. hopeing morning staff would be better. WRONG found recipt under door showing card had been charged. went to front desk no one there. rang the bell. no smile no greeting. asked to have the charge...I checked in on feb. 17, stayed at the comfort inn because it is a choice hotel, and im a choice employee. walked in, no one was at the front desk. Understandable probably doing laundry or other front desk duties. Rang bell, guy came out (no welcome or apology for not being at the desk.) I asked to check in and gave him my information. guy was snappy and rude. understanding that he was probably at the end of his shift i let it go. Explained to him that i wanted to pay cash and that I ABSOLUTLY DIDNT WANT THE CARD CHARGED. he said i could pay cash in the morning. ok thats fine. card got charged that night. Went up to the room realised that the batterys in the remote werent good, and decided to go back down to the front desk and have them replaced rather then having him come up. to be nice. Went down and asked for batteries. he didnt have any batteriys didnt have a spare remote. didnt offer to do anything to help with the situation. and was extreamly rude the entire time. Very annoyed by now decided to just go back up stairs and go to bed. hopeing morning staff would be better. WRONG found recipt under door showing card had been charged. went to front desk no one there. rang the bell. no smile no greeting. asked to have the charge reversed and to pay cash. she told me that the card wasnt actually charged and that it was a phantom charge. UMM I WORK AT THESE MOTELS I KNOW WHAT A CHARGE LOOKS LIKE. frustrated with service and the staff and the staffs training. i decided just to leave. I have never been treated so terriably at a motel. and if anyone of my staff was to treat guests like that i would be embarrased. and would be retraining them or getting rid of them. WILL NEVER STAY AGAIN! and hope their staff would be better trained.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Andrea G, Manager at Comfort Inn Denver West, responded to this reviewResponded February 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2013</t>
+  </si>
+  <si>
+    <t>I checked in on feb. 17, stayed at the comfort inn because it is a choice hotel, and im a choice employee. walked in, no one was at the front desk. Understandable probably doing laundry or other front desk duties. Rang bell, guy came out (no welcome or apology for not being at the desk.) I asked to check in and gave him my information. guy was snappy and rude. understanding that he was probably at the end of his shift i let it go. Explained to him that i wanted to pay cash and that I ABSOLUTLY DIDNT WANT THE CARD CHARGED. he said i could pay cash in the morning. ok thats fine. card got charged that night. Went up to the room realised that the batterys in the remote werent good, and decided to go back down to the front desk and have them replaced rather then having him come up. to be nice. Went down and asked for batteries. he didnt have any batteriys didnt have a spare remote. didnt offer to do anything to help with the situation. and was extreamly rude the entire time. Very annoyed by now decided to just go back up stairs and go to bed. hopeing morning staff would be better. WRONG found recipt under door showing card had been charged. went to front desk no one there. rang the bell. no smile no greeting. asked to have the charge...I checked in on feb. 17, stayed at the comfort inn because it is a choice hotel, and im a choice employee. walked in, no one was at the front desk. Understandable probably doing laundry or other front desk duties. Rang bell, guy came out (no welcome or apology for not being at the desk.) I asked to check in and gave him my information. guy was snappy and rude. understanding that he was probably at the end of his shift i let it go. Explained to him that i wanted to pay cash and that I ABSOLUTLY DIDNT WANT THE CARD CHARGED. he said i could pay cash in the morning. ok thats fine. card got charged that night. Went up to the room realised that the batterys in the remote werent good, and decided to go back down to the front desk and have them replaced rather then having him come up. to be nice. Went down and asked for batteries. he didnt have any batteriys didnt have a spare remote. didnt offer to do anything to help with the situation. and was extreamly rude the entire time. Very annoyed by now decided to just go back up stairs and go to bed. hopeing morning staff would be better. WRONG found recipt under door showing card had been charged. went to front desk no one there. rang the bell. no smile no greeting. asked to have the charge reversed and to pay cash. she told me that the card wasnt actually charged and that it was a phantom charge. UMM I WORK AT THESE MOTELS I KNOW WHAT A CHARGE LOOKS LIKE. frustrated with service and the staff and the staffs training. i decided just to leave. I have never been treated so terriably at a motel. and if anyone of my staff was to treat guests like that i would be embarrased. and would be retraining them or getting rid of them. WILL NEVER STAY AGAIN! and hope their staff would be better trained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r146523196-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>146523196</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Average hotel but right for the price</t>
+  </si>
+  <si>
+    <t>This hotel was average. Nothing special but was fine. Our room looked like they cleaned everything but forgot to vacuum it so I told the front desk. She was very nice and fixed it right away.  The breakfast was normal for comfort inn but it ends at 9am during the week.  It would have been nice if it was a little later. Location was convient to downtown Denver. The room we stayed in was quite. Good value if you don't need anything fancy. MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortInnWheatRidge, Manager at Comfort Inn Denver West, responded to this reviewResponded December 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2012</t>
+  </si>
+  <si>
+    <t>This hotel was average. Nothing special but was fine. Our room looked like they cleaned everything but forgot to vacuum it so I told the front desk. She was very nice and fixed it right away.  The breakfast was normal for comfort inn but it ends at 9am during the week.  It would have been nice if it was a little later. Location was convient to downtown Denver. The room we stayed in was quite. Good value if you don't need anything fancy. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r143535579-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>143535579</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Andrea G, Manager at Comfort Inn Denver West, responded to this reviewResponded December 2, 2012</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r143041195-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>143041195</t>
+  </si>
+  <si>
+    <t>10/17/2012</t>
+  </si>
+  <si>
+    <t>Nice convenient location</t>
+  </si>
+  <si>
+    <t>Was very nice neighborhood and location close to downtown. I did not have a reservation found on internet and booked it and hour before checking in! I would stay here again, it is a bit hard to find because it is behind another motel but just follow the front street.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r140809304-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>140809304</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>This is one of my favorite stays in Wheat Ridge when I travel alone and on business in the Denver area.  They are affordable and comfortable and clean.  The front desk is especially friendly and helpful.   The breakfast is the usual but kept full and hot.   Ask for a room on the back of the hotel when making reservations.   The front faces the freeway and the back faces a very large park with a 'dog park' fenced off in the middle.   The dogs are fun to watch from your window.  Good, Clean and good AC.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r137395583-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>137395583</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>Adequate for the price</t>
+  </si>
+  <si>
+    <t>Right off the highway.  Average room for a decent price.  Room was cleaan and comfortable.  Bathroom was clean but smelled a bit musty at first. Walllpaper above the shower showed signs of wear.  Free breakfast was fine - powdered egss, waffles and usual fare.  We didn't use the pool but it looked cute - enclosed in a pine room with a small hot tub.  We spent one night passing through and it served the purpose.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r136248780-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>136248780</t>
+  </si>
+  <si>
+    <t>08/04/2012</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>We stayed here the last 2 nights of our Colorado Trip. It sits on the west side of Denver, close to Rt 70. There is a park right behind it.The staff were very friendly and gave us a king suite. They helped with getting to local restaurants and   and eny other questions we had. Coffee was available in the lobby and a PC to sorf the web.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r132453246-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>132453246</t>
+  </si>
+  <si>
+    <t>06/21/2012</t>
+  </si>
+  <si>
+    <t>No hot water!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed 4 nights, room was clean and quiet. No hot water on TWO mornings, clerk said they could not provide any compensation because we booked through hotels.com instead of directly.  I find it hard to believe they can't find a way to credit me or give me a voucher for a future visit if they are able to do so for others.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r131398281-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>131398281</t>
+  </si>
+  <si>
+    <t>06/06/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We spent 1 night here on our way to Grand Junction.  The room was very clean, comfortable beds.  The pool area was clean, and well stocked with towels.  We had a very nice breakfast, their was plenty of food and it was hot.  We travel to Grand Junction every year and have stayed at other motels in Denver before heading acoss the mountains.  This will be our motel from now on.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r130737927-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>130737927</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>A nice place</t>
+  </si>
+  <si>
+    <t>Stayed there right before memorial day.  The rooms were nice and spacious.  Breakfast was good.  Only problem was that it must have been kids night as the pool was full of kids and they must have loved to play in the room above us.Management let us park our motorcycles up front under cover.  Definately a thumbs up on this.  Would I stay there again?  Yes.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r124125455-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>124125455</t>
+  </si>
+  <si>
+    <t>02/04/2012</t>
+  </si>
+  <si>
+    <t>By far the best Comfprt Inn I've stayed at (take the 5 stars rating relative to this class hotel).  Stayed here for 2 days and had a great experience.  Staff was friendly and the room was clean and fresh smelling.  Beds were comfortable and a nice flat screen tv, room is standard hotel size with spartan furnishing but still nicely decorated.  There was a fridge in the room also.  Free internet was fast.  Even though it's near I-70 didn't hear road noise, also nice playground next door for kids.  Free breakfast was decent.  I was checking out on the day of a big snow storm and the staff had shoveled all the snow around the hotel already.  Overall great value for the price I paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>By far the best Comfprt Inn I've stayed at (take the 5 stars rating relative to this class hotel).  Stayed here for 2 days and had a great experience.  Staff was friendly and the room was clean and fresh smelling.  Beds were comfortable and a nice flat screen tv, room is standard hotel size with spartan furnishing but still nicely decorated.  There was a fridge in the room also.  Free internet was fast.  Even though it's near I-70 didn't hear road noise, also nice playground next door for kids.  Free breakfast was decent.  I was checking out on the day of a big snow storm and the staff had shoveled all the snow around the hotel already.  Overall great value for the price I paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r122459173-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>122459173</t>
+  </si>
+  <si>
+    <t>01/03/2012</t>
+  </si>
+  <si>
+    <t>The best hotel</t>
+  </si>
+  <si>
+    <t>The staff was friendly and exceptional. The cleanliness was great and the pool and hot tub was a welcome retreat. The cleaning staff completely changed everything every day. New blankets, new everything. I stayed here for 9 days and I have to say it was the best hotel I've ever visited. Will use it again next time I'm in Denver !</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r118395233-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>118395233</t>
+  </si>
+  <si>
+    <t>09/20/2011</t>
+  </si>
+  <si>
+    <t>Family room, plenty of space, great W location</t>
+  </si>
+  <si>
+    <t>We booked a room online, an easy process.  The hotel sits off a frontage road, and motorway; the sound of semi-trucks is faint from the highway.   The front desk staff member was friendly &amp; informative.  The room is located on the top floor (of 3), and we didn't hear any other guests. We used stairs; there is an elevator.  
+This room has two comfortable queen/double beds, a wardrobe for hanging clothes, a pony wall dividing the room visually from the "work" portion.  The TV is set up for cable with a movie channel, while a microwave and small fridge round out the amenities.  There are several outlets for charging electronics, and a small square table for dining or conducting work...the table was too high to make it comfortable for me to type upon.  A two-seater couch pulls out to make another bed for 2, which an arm chair and a coffee table make this a comfortable space to relax, watch TV or meet with others.  The furnishings are nice but not exceptional, and everything at this time is in excellent condition.
+In common areas, the Berber carpet is a bit worn, but clean.  The breakfast room is of a large size, and well appointed.  There are a variety of foods available, including cereals, yogurts, a waffle-maker.  Adjoining the breakfast room is the pool and hot-tub, both of which are in a wood-paneled room, are of a fair size (5 foot...We booked a room online, an easy process.  The hotel sits off a frontage road, and motorway; the sound of semi-trucks is faint from the highway.   The front desk staff member was friendly &amp; informative.  The room is located on the top floor (of 3), and we didn't hear any other guests. We used stairs; there is an elevator.  This room has two comfortable queen/double beds, a wardrobe for hanging clothes, a pony wall dividing the room visually from the "work" portion.  The TV is set up for cable with a movie channel, while a microwave and small fridge round out the amenities.  There are several outlets for charging electronics, and a small square table for dining or conducting work...the table was too high to make it comfortable for me to type upon.  A two-seater couch pulls out to make another bed for 2, which an arm chair and a coffee table make this a comfortable space to relax, watch TV or meet with others.  The furnishings are nice but not exceptional, and everything at this time is in excellent condition.In common areas, the Berber carpet is a bit worn, but clean.  The breakfast room is of a large size, and well appointed.  There are a variety of foods available, including cereals, yogurts, a waffle-maker.  Adjoining the breakfast room is the pool and hot-tub, both of which are in a wood-paneled room, are of a fair size (5 foot deep pool) and located inside, on the ground floor &amp; open from 9am-10pm.  We ordered pizza from a local restaurant, which delivered to the room and there are a number of places to dine in the close vicinity.  This location is near the cross-point of the E-W and the N-S motorway, making it easy to maneuver around the city, and isn't far from downtown Denver.  We enjoyed this hotel for our family of 5, but I can see how it would be ideal for business or a stop-over from the airport to the ski slopes.  Denver, the Mile-High City, has a lot on offer for those wishing to explore, with one of the finest art museums in the country, a zoo, an aquarium, sports and music venues, a vibrant downtown, and much more.  Can't beat the 300+ days of sunshine a year!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>We booked a room online, an easy process.  The hotel sits off a frontage road, and motorway; the sound of semi-trucks is faint from the highway.   The front desk staff member was friendly &amp; informative.  The room is located on the top floor (of 3), and we didn't hear any other guests. We used stairs; there is an elevator.  
+This room has two comfortable queen/double beds, a wardrobe for hanging clothes, a pony wall dividing the room visually from the "work" portion.  The TV is set up for cable with a movie channel, while a microwave and small fridge round out the amenities.  There are several outlets for charging electronics, and a small square table for dining or conducting work...the table was too high to make it comfortable for me to type upon.  A two-seater couch pulls out to make another bed for 2, which an arm chair and a coffee table make this a comfortable space to relax, watch TV or meet with others.  The furnishings are nice but not exceptional, and everything at this time is in excellent condition.
+In common areas, the Berber carpet is a bit worn, but clean.  The breakfast room is of a large size, and well appointed.  There are a variety of foods available, including cereals, yogurts, a waffle-maker.  Adjoining the breakfast room is the pool and hot-tub, both of which are in a wood-paneled room, are of a fair size (5 foot...We booked a room online, an easy process.  The hotel sits off a frontage road, and motorway; the sound of semi-trucks is faint from the highway.   The front desk staff member was friendly &amp; informative.  The room is located on the top floor (of 3), and we didn't hear any other guests. We used stairs; there is an elevator.  This room has two comfortable queen/double beds, a wardrobe for hanging clothes, a pony wall dividing the room visually from the "work" portion.  The TV is set up for cable with a movie channel, while a microwave and small fridge round out the amenities.  There are several outlets for charging electronics, and a small square table for dining or conducting work...the table was too high to make it comfortable for me to type upon.  A two-seater couch pulls out to make another bed for 2, which an arm chair and a coffee table make this a comfortable space to relax, watch TV or meet with others.  The furnishings are nice but not exceptional, and everything at this time is in excellent condition.In common areas, the Berber carpet is a bit worn, but clean.  The breakfast room is of a large size, and well appointed.  There are a variety of foods available, including cereals, yogurts, a waffle-maker.  Adjoining the breakfast room is the pool and hot-tub, both of which are in a wood-paneled room, are of a fair size (5 foot deep pool) and located inside, on the ground floor &amp; open from 9am-10pm.  We ordered pizza from a local restaurant, which delivered to the room and there are a number of places to dine in the close vicinity.  This location is near the cross-point of the E-W and the N-S motorway, making it easy to maneuver around the city, and isn't far from downtown Denver.  We enjoyed this hotel for our family of 5, but I can see how it would be ideal for business or a stop-over from the airport to the ski slopes.  Denver, the Mile-High City, has a lot on offer for those wishing to explore, with one of the finest art museums in the country, a zoo, an aquarium, sports and music venues, a vibrant downtown, and much more.  Can't beat the 300+ days of sunshine a year!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r108477009-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>108477009</t>
+  </si>
+  <si>
+    <t>05/16/2011</t>
+  </si>
+  <si>
+    <t>Go somewhere else</t>
+  </si>
+  <si>
+    <t>I will never patron this Comfort Inn or another affiliation again. Stayed here only because Holiday Inn Express had no availability. I complained to the front deskt at 1100 and 1230 at night due to unruly hotel guests in the room directly above us. I was told I would receive a discount due to the inconvenience. To my utter amazement my discount was TEN DOLLARS. Shows how much they value those that patron their hotel. Go somewhere else if you would like to be treated like a valuable guest.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r89514666-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>89514666</t>
+  </si>
+  <si>
+    <t>12/10/2010</t>
+  </si>
+  <si>
+    <t>Friendly hotel - convenient for bus routes into Denver</t>
+  </si>
+  <si>
+    <t>A three storey modern block, located just off Interstate 70 and well hidden from it, with no road noise heard.  Pre-booked for two nights and allocated double room on first floor with TV, clock radio, fridge, hairdryer, coffee maker and ironing board.  No microwave. Opening window overlooked a park playing field.  Guest laundry - with armchairs to wait in - and a reasonable sized indoor pool.   Very friendly staff - particularly a South African lady who was keen to chat and provided useful directions and other help.   Breakfast - choice of 3 juices, 3 cereals, pastries, muffins and toast.  Also waffles and biscuit&amp;gravy available.    Rather than drive into Denver and worry about parking,  we opted to leave the car and use local buses.  Four block walk to #44 bus and ten more blocks to #38.  Both routes took about 30 min into downtown area, with very reasonable fares which included transfer to other routes, if needed.    Family type restaurants nearby on Kipling Avenue.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>A three storey modern block, located just off Interstate 70 and well hidden from it, with no road noise heard.  Pre-booked for two nights and allocated double room on first floor with TV, clock radio, fridge, hairdryer, coffee maker and ironing board.  No microwave. Opening window overlooked a park playing field.  Guest laundry - with armchairs to wait in - and a reasonable sized indoor pool.   Very friendly staff - particularly a South African lady who was keen to chat and provided useful directions and other help.   Breakfast - choice of 3 juices, 3 cereals, pastries, muffins and toast.  Also waffles and biscuit&amp;gravy available.    Rather than drive into Denver and worry about parking,  we opted to leave the car and use local buses.  Four block walk to #44 bus and ten more blocks to #38.  Both routes took about 30 min into downtown area, with very reasonable fares which included transfer to other routes, if needed.    Family type restaurants nearby on Kipling Avenue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r69579549-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>69579549</t>
+  </si>
+  <si>
+    <t>07/03/2010</t>
+  </si>
+  <si>
+    <t>Clean, reasonable price, friendly staff, quick freeway access</t>
+  </si>
+  <si>
+    <t>We stayed here for a weeklong softball tournament.
+THE GOOD: Good location with quick freeway access and nearby grocery store, restaurants, etc., rooms and facilities were very clean and smelled pleasant with comfortable beds, all the staff (day and night crews) were very friendly and helpful (very rare these days), working laundry facilities, nice pool/spa area, decent complimentary breakfast, large vending machine with drinks, snacks &amp; laundry soap, free high-speed wireless internet worked great even on the 3rd floor (wired option also available but not used) , business computer/fax in lobby/main floor, huge grassy-area/park right next to hotel.
+ROOM FOR IMPROVEMENT: The air conditioner was very loud every time it kicked on (like the fan needs to be oiled or something), noise/talking in the hallway is very easy to hear and could probably be minimized very easily by adding some moulding around the door frame and the bottoms of the doors as there is a fairly large gap allowing sound through. The stairwells have air conditioning/heating units mounted but have been disabled, so in the summer they are very hot and stuffy (this is certainly a cost/energy-saving measure) and can only assume very cold in the winter. The elevator is extremely slow, so unless you're carrying a heavy load, the stairs are the way to go. It would be nice if refrigerators were in all the rooms, not just some of them. I can't think of a time I DIDN'T...We stayed here for a weeklong softball tournament.THE GOOD: Good location with quick freeway access and nearby grocery store, restaurants, etc., rooms and facilities were very clean and smelled pleasant with comfortable beds, all the staff (day and night crews) were very friendly and helpful (very rare these days), working laundry facilities, nice pool/spa area, decent complimentary breakfast, large vending machine with drinks, snacks &amp; laundry soap, free high-speed wireless internet worked great even on the 3rd floor (wired option also available but not used) , business computer/fax in lobby/main floor, huge grassy-area/park right next to hotel.ROOM FOR IMPROVEMENT: The air conditioner was very loud every time it kicked on (like the fan needs to be oiled or something), noise/talking in the hallway is very easy to hear and could probably be minimized very easily by adding some moulding around the door frame and the bottoms of the doors as there is a fairly large gap allowing sound through. The stairwells have air conditioning/heating units mounted but have been disabled, so in the summer they are very hot and stuffy (this is certainly a cost/energy-saving measure) and can only assume very cold in the winter. The elevator is extremely slow, so unless you're carrying a heavy load, the stairs are the way to go. It would be nice if refrigerators were in all the rooms, not just some of them. I can't think of a time I DIDN'T use a hotel refrigerator when it had one in the room.SUMMARY: I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>We stayed here for a weeklong softball tournament.
+THE GOOD: Good location with quick freeway access and nearby grocery store, restaurants, etc., rooms and facilities were very clean and smelled pleasant with comfortable beds, all the staff (day and night crews) were very friendly and helpful (very rare these days), working laundry facilities, nice pool/spa area, decent complimentary breakfast, large vending machine with drinks, snacks &amp; laundry soap, free high-speed wireless internet worked great even on the 3rd floor (wired option also available but not used) , business computer/fax in lobby/main floor, huge grassy-area/park right next to hotel.
+ROOM FOR IMPROVEMENT: The air conditioner was very loud every time it kicked on (like the fan needs to be oiled or something), noise/talking in the hallway is very easy to hear and could probably be minimized very easily by adding some moulding around the door frame and the bottoms of the doors as there is a fairly large gap allowing sound through. The stairwells have air conditioning/heating units mounted but have been disabled, so in the summer they are very hot and stuffy (this is certainly a cost/energy-saving measure) and can only assume very cold in the winter. The elevator is extremely slow, so unless you're carrying a heavy load, the stairs are the way to go. It would be nice if refrigerators were in all the rooms, not just some of them. I can't think of a time I DIDN'T...We stayed here for a weeklong softball tournament.THE GOOD: Good location with quick freeway access and nearby grocery store, restaurants, etc., rooms and facilities were very clean and smelled pleasant with comfortable beds, all the staff (day and night crews) were very friendly and helpful (very rare these days), working laundry facilities, nice pool/spa area, decent complimentary breakfast, large vending machine with drinks, snacks &amp; laundry soap, free high-speed wireless internet worked great even on the 3rd floor (wired option also available but not used) , business computer/fax in lobby/main floor, huge grassy-area/park right next to hotel.ROOM FOR IMPROVEMENT: The air conditioner was very loud every time it kicked on (like the fan needs to be oiled or something), noise/talking in the hallway is very easy to hear and could probably be minimized very easily by adding some moulding around the door frame and the bottoms of the doors as there is a fairly large gap allowing sound through. The stairwells have air conditioning/heating units mounted but have been disabled, so in the summer they are very hot and stuffy (this is certainly a cost/energy-saving measure) and can only assume very cold in the winter. The elevator is extremely slow, so unless you're carrying a heavy load, the stairs are the way to go. It would be nice if refrigerators were in all the rooms, not just some of them. I can't think of a time I DIDN'T use a hotel refrigerator when it had one in the room.SUMMARY: I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r58003397-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>58003397</t>
+  </si>
+  <si>
+    <t>03/07/2010</t>
+  </si>
+  <si>
+    <t>Convient location just off freeway west of Denver</t>
+  </si>
+  <si>
+    <t>We had booked a couple months ahead and were assured of third or forth floor. When we arrived all that was available was first floor next to the stairs. Were disturbed with every person pounding down the stairs.Apparently early booking is not a benefit with Comfort Inn.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r19856285-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>19856285</t>
+  </si>
+  <si>
+    <t>09/07/2008</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel Outside of Denver</t>
+  </si>
+  <si>
+    <t>We had made a reservation in January with another hotel for our August stay in Denver. We learned a week before leaving that our reservation had been mysteriously cancelled and we no longer had a room.  The room had gone from $89 a night to $450 a night since this was the week of the Democratic Convention. In any event, after reviewing the recent Trip Advisor comments about that hotel we decided not to fight for the old reservation but to look for a new one.  Most of the rooms in Denver and surroundings were full or a fortune.  We found the Comfort Inn in Wheat Ridge and were pleased with the price of $150 a night which was very reasonable based on the circumstances.  We found the hotel easily since it is next to I 70. The room was average but clean.  The breakfast was quite good and was enough for the morning.  If possible get a room on the side next to a small park rather than the freeway if you like a more quiet experience.  Staff was very friendly.  Several low cost restaurants within walking distance. It taks about 15 minutes to get to Denver on the freeways and  another 15 minutes in the other direction to the Coors Brewery tour at Golden, Colorado.  Tour very good if you like beer!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had made a reservation in January with another hotel for our August stay in Denver. We learned a week before leaving that our reservation had been mysteriously cancelled and we no longer had a room.  The room had gone from $89 a night to $450 a night since this was the week of the Democratic Convention. In any event, after reviewing the recent Trip Advisor comments about that hotel we decided not to fight for the old reservation but to look for a new one.  Most of the rooms in Denver and surroundings were full or a fortune.  We found the Comfort Inn in Wheat Ridge and were pleased with the price of $150 a night which was very reasonable based on the circumstances.  We found the hotel easily since it is next to I 70. The room was average but clean.  The breakfast was quite good and was enough for the morning.  If possible get a room on the side next to a small park rather than the freeway if you like a more quiet experience.  Staff was very friendly.  Several low cost restaurants within walking distance. It taks about 15 minutes to get to Denver on the freeways and  another 15 minutes in the other direction to the Coors Brewery tour at Golden, Colorado.  Tour very good if you like beer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r17821671-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>17821671</t>
+  </si>
+  <si>
+    <t>07/12/2008</t>
+  </si>
+  <si>
+    <t>A very pleasant stay</t>
+  </si>
+  <si>
+    <t>The hotel was easy to find since it was located at the intersection of Kipling St and I-70, which is west of the intersection of I-76 and I-70.  I had reserved a room through choicehotels.com so check-in and check-out was easy and fast.  The front desk staff was very friendly and sociable.  
+We booked a suite with two queen beds and a pull out couch for two nights.  The beds were comfortable and the room was spacious and clean.  The bathroom was roomy with a large counter top for our toiletries (family of five) and the shower/tub had a curved curtain rod that created plenty of elbow room in the shower.  
+A restaurant was not on site, but an adequeate and satisfying breakfast bar and sitting area was provided.  Breakfast items included dry cereals, waffles (you make them), boiled eggs, milk, coffee, and assorted fruits, juices, pastries, and breads.  An attendant was on hand and made sure all items were available during the posted hours.  
+We used the indoor pool on the day we arrived and loved it.  It was not huge, but big enough for some fun for our three kids.  The pool was also well stocked with towels.  
+Downtown Denver was easily accessed for trips to the Aquarium, Coors Field (Go Braves! 7-1 over the Rockies), and Buckhorn Exchange.  I think it took us about 10 minutes to get to the downtown area.    
+If our next trip takes...The hotel was easy to find since it was located at the intersection of Kipling St and I-70, which is west of the intersection of I-76 and I-70.  I had reserved a room through choicehotels.com so check-in and check-out was easy and fast.  The front desk staff was very friendly and sociable.  We booked a suite with two queen beds and a pull out couch for two nights.  The beds were comfortable and the room was spacious and clean.  The bathroom was roomy with a large counter top for our toiletries (family of five) and the shower/tub had a curved curtain rod that created plenty of elbow room in the shower.  A restaurant was not on site, but an adequeate and satisfying breakfast bar and sitting area was provided.  Breakfast items included dry cereals, waffles (you make them), boiled eggs, milk, coffee, and assorted fruits, juices, pastries, and breads.  An attendant was on hand and made sure all items were available during the posted hours.  We used the indoor pool on the day we arrived and loved it.  It was not huge, but big enough for some fun for our three kids.  The pool was also well stocked with towels.  Downtown Denver was easily accessed for trips to the Aquarium, Coors Field (Go Braves! 7-1 over the Rockies), and Buckhorn Exchange.  I think it took us about 10 minutes to get to the downtown area.    If our next trip takes us through Denver, we plan to stay here again if the ratings hold true.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>The hotel was easy to find since it was located at the intersection of Kipling St and I-70, which is west of the intersection of I-76 and I-70.  I had reserved a room through choicehotels.com so check-in and check-out was easy and fast.  The front desk staff was very friendly and sociable.  
+We booked a suite with two queen beds and a pull out couch for two nights.  The beds were comfortable and the room was spacious and clean.  The bathroom was roomy with a large counter top for our toiletries (family of five) and the shower/tub had a curved curtain rod that created plenty of elbow room in the shower.  
+A restaurant was not on site, but an adequeate and satisfying breakfast bar and sitting area was provided.  Breakfast items included dry cereals, waffles (you make them), boiled eggs, milk, coffee, and assorted fruits, juices, pastries, and breads.  An attendant was on hand and made sure all items were available during the posted hours.  
+We used the indoor pool on the day we arrived and loved it.  It was not huge, but big enough for some fun for our three kids.  The pool was also well stocked with towels.  
+Downtown Denver was easily accessed for trips to the Aquarium, Coors Field (Go Braves! 7-1 over the Rockies), and Buckhorn Exchange.  I think it took us about 10 minutes to get to the downtown area.    
+If our next trip takes...The hotel was easy to find since it was located at the intersection of Kipling St and I-70, which is west of the intersection of I-76 and I-70.  I had reserved a room through choicehotels.com so check-in and check-out was easy and fast.  The front desk staff was very friendly and sociable.  We booked a suite with two queen beds and a pull out couch for two nights.  The beds were comfortable and the room was spacious and clean.  The bathroom was roomy with a large counter top for our toiletries (family of five) and the shower/tub had a curved curtain rod that created plenty of elbow room in the shower.  A restaurant was not on site, but an adequeate and satisfying breakfast bar and sitting area was provided.  Breakfast items included dry cereals, waffles (you make them), boiled eggs, milk, coffee, and assorted fruits, juices, pastries, and breads.  An attendant was on hand and made sure all items were available during the posted hours.  We used the indoor pool on the day we arrived and loved it.  It was not huge, but big enough for some fun for our three kids.  The pool was also well stocked with towels.  Downtown Denver was easily accessed for trips to the Aquarium, Coors Field (Go Braves! 7-1 over the Rockies), and Buckhorn Exchange.  I think it took us about 10 minutes to get to the downtown area.    If our next trip takes us through Denver, we plan to stay here again if the ratings hold true.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r8363903-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>8363903</t>
+  </si>
+  <si>
+    <t>08/05/2007</t>
+  </si>
+  <si>
+    <t>Clean, great location and service!</t>
+  </si>
+  <si>
+    <t>This turned out to be one of the nicest hotels on our cross country trip.  It is certainly not a 5 star resort, however it a newer, clean hotel with an excellent staff.  Everyone at the front desk went out of their way to be friendly, find area restaurants,  and provide pool towels.  The beds were very comfortable with 4 pillows on each bed.  (Something I enjoy)  VERY clean rooms and bathrooms.  Wireless internet was easy to access.  The breakfast included waffles, donuts, pasteries, oatmeal, cereal, muffins, bagels, toast hard boiled eggs and more. The pool was a small indoor pool with a small hot tub.Great value, clean hotel, nice staff....everything we needed for a vacation stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>This turned out to be one of the nicest hotels on our cross country trip.  It is certainly not a 5 star resort, however it a newer, clean hotel with an excellent staff.  Everyone at the front desk went out of their way to be friendly, find area restaurants,  and provide pool towels.  The beds were very comfortable with 4 pillows on each bed.  (Something I enjoy)  VERY clean rooms and bathrooms.  Wireless internet was easy to access.  The breakfast included waffles, donuts, pasteries, oatmeal, cereal, muffins, bagels, toast hard boiled eggs and more. The pool was a small indoor pool with a small hot tub.Great value, clean hotel, nice staff....everything we needed for a vacation stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r8107117-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>8107117</t>
+  </si>
+  <si>
+    <t>07/11/2007</t>
+  </si>
+  <si>
+    <t>no problems at all</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for a week and never had any problems.  The staff was always attentive and helpful.  The internet in the lobby was always on and working with little or no wait.  Housekeeping did a wonderful job and we never worried about leaving valuables in our room.  The beds were comfortable and the new pillows were a blessing.  Even though there were many teenage girls staying here (for the same softball tournament we were there for) the halls and rooms were always quiet.  We will be attenting the softball tournament again next year and we will stay here.  It was so close to all the fields.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for a week and never had any problems.  The staff was always attentive and helpful.  The internet in the lobby was always on and working with little or no wait.  Housekeeping did a wonderful job and we never worried about leaving valuables in our room.  The beds were comfortable and the new pillows were a blessing.  Even though there were many teenage girls staying here (for the same softball tournament we were there for) the halls and rooms were always quiet.  We will be attenting the softball tournament again next year and we will stay here.  It was so close to all the fields.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d235485-r7483427-Comfort_Inn_Denver_West-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>7483427</t>
+  </si>
+  <si>
+    <t>04/29/2007</t>
+  </si>
+  <si>
+    <t>Would stay there again</t>
+  </si>
+  <si>
+    <t>Clean room, nice lobby and cheap rate. What more can you ask for when you are getting a hotel. Just off of 1-70 it was very easy to get to from the airport. Was about a twenty minute drive after I got off Pena Blvd. Breakfast included with my room and there was a pool right near the front desk. The front desk put me on the second floor away from the elevators so I slept like a baby.</t>
+  </si>
+  <si>
+    <t>March 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2286,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2318,5930 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" t="s">
+        <v>204</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s">
+        <v>209</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" t="s">
+        <v>211</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s">
+        <v>216</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" t="s">
+        <v>220</v>
+      </c>
+      <c r="K30" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O30" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>234</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" t="s">
+        <v>237</v>
+      </c>
+      <c r="K33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" t="s">
+        <v>239</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>234</v>
+      </c>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>241</v>
+      </c>
+      <c r="J34" t="s">
+        <v>242</v>
+      </c>
+      <c r="K34" t="s">
+        <v>243</v>
+      </c>
+      <c r="L34" t="s">
+        <v>244</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>245</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>248</v>
+      </c>
+      <c r="J35" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" t="s">
+        <v>250</v>
+      </c>
+      <c r="L35" t="s">
+        <v>251</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>252</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>254</v>
+      </c>
+      <c r="J36" t="s">
+        <v>255</v>
+      </c>
+      <c r="K36" t="s">
+        <v>256</v>
+      </c>
+      <c r="L36" t="s">
+        <v>257</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>258</v>
+      </c>
+      <c r="O36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>258</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" t="s">
+        <v>273</v>
+      </c>
+      <c r="L39" t="s">
+        <v>274</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" t="s">
+        <v>280</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>275</v>
+      </c>
+      <c r="O40" t="s">
+        <v>211</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>282</v>
+      </c>
+      <c r="J41" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" t="s">
+        <v>284</v>
+      </c>
+      <c r="L41" t="s">
+        <v>285</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>286</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>288</v>
+      </c>
+      <c r="J42" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" t="s">
+        <v>291</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>286</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>293</v>
+      </c>
+      <c r="J43" t="s">
+        <v>294</v>
+      </c>
+      <c r="K43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L43" t="s">
+        <v>296</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>286</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>297</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>298</v>
+      </c>
+      <c r="J44" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" t="s">
+        <v>300</v>
+      </c>
+      <c r="L44" t="s">
+        <v>301</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>302</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>305</v>
+      </c>
+      <c r="J45" t="s">
+        <v>306</v>
+      </c>
+      <c r="K45" t="s">
+        <v>307</v>
+      </c>
+      <c r="L45" t="s">
+        <v>308</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>302</v>
+      </c>
+      <c r="O45" t="s">
+        <v>211</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>310</v>
+      </c>
+      <c r="J46" t="s">
+        <v>311</v>
+      </c>
+      <c r="K46" t="s">
+        <v>312</v>
+      </c>
+      <c r="L46" t="s">
+        <v>313</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>314</v>
+      </c>
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>315</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>316</v>
+      </c>
+      <c r="J47" t="s">
+        <v>317</v>
+      </c>
+      <c r="K47" t="s">
+        <v>318</v>
+      </c>
+      <c r="L47" t="s">
+        <v>319</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>320</v>
+      </c>
+      <c r="O47" t="s">
+        <v>97</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>321</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>322</v>
+      </c>
+      <c r="J48" t="s">
+        <v>323</v>
+      </c>
+      <c r="K48" t="s">
+        <v>324</v>
+      </c>
+      <c r="L48" t="s">
+        <v>325</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>326</v>
+      </c>
+      <c r="O48" t="s">
+        <v>97</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>328</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" t="s">
+        <v>330</v>
+      </c>
+      <c r="K49" t="s">
+        <v>331</v>
+      </c>
+      <c r="L49" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>333</v>
+      </c>
+      <c r="O49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>334</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>335</v>
+      </c>
+      <c r="J50" t="s">
+        <v>336</v>
+      </c>
+      <c r="K50" t="s">
+        <v>337</v>
+      </c>
+      <c r="L50" t="s">
+        <v>338</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>339</v>
+      </c>
+      <c r="O50" t="s">
+        <v>97</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>340</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>341</v>
+      </c>
+      <c r="J51" t="s">
+        <v>342</v>
+      </c>
+      <c r="K51" t="s">
+        <v>343</v>
+      </c>
+      <c r="L51" t="s">
+        <v>344</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>339</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>345</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" t="s">
+        <v>347</v>
+      </c>
+      <c r="K52" t="s">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s">
+        <v>349</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>350</v>
+      </c>
+      <c r="O52" t="s">
+        <v>97</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>351</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>352</v>
+      </c>
+      <c r="J53" t="s">
+        <v>353</v>
+      </c>
+      <c r="K53" t="s">
+        <v>354</v>
+      </c>
+      <c r="L53" t="s">
+        <v>355</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>356</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>358</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>359</v>
+      </c>
+      <c r="J54" t="s">
+        <v>360</v>
+      </c>
+      <c r="K54" t="s">
+        <v>361</v>
+      </c>
+      <c r="L54" t="s">
+        <v>362</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>356</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>364</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>365</v>
+      </c>
+      <c r="J55" t="s">
+        <v>366</v>
+      </c>
+      <c r="K55" t="s">
+        <v>367</v>
+      </c>
+      <c r="L55" t="s">
+        <v>368</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>356</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>370</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>371</v>
+      </c>
+      <c r="J56" t="s">
+        <v>372</v>
+      </c>
+      <c r="K56" t="s">
+        <v>373</v>
+      </c>
+      <c r="L56" t="s">
+        <v>374</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>375</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>376</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>377</v>
+      </c>
+      <c r="J57" t="s">
+        <v>378</v>
+      </c>
+      <c r="K57" t="s">
+        <v>379</v>
+      </c>
+      <c r="L57" t="s">
+        <v>380</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>381</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>382</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>383</v>
+      </c>
+      <c r="J58" t="s">
+        <v>384</v>
+      </c>
+      <c r="K58" t="s">
+        <v>385</v>
+      </c>
+      <c r="L58" t="s">
+        <v>386</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>387</v>
+      </c>
+      <c r="O58" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>388</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>389</v>
+      </c>
+      <c r="J59" t="s">
+        <v>390</v>
+      </c>
+      <c r="K59" t="s">
+        <v>391</v>
+      </c>
+      <c r="L59" t="s">
+        <v>392</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>387</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>393</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>394</v>
+      </c>
+      <c r="J60" t="s">
+        <v>395</v>
+      </c>
+      <c r="K60" t="s">
+        <v>396</v>
+      </c>
+      <c r="L60" t="s">
+        <v>397</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>387</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>398</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>399</v>
+      </c>
+      <c r="J61" t="s">
+        <v>400</v>
+      </c>
+      <c r="K61" t="s">
+        <v>401</v>
+      </c>
+      <c r="L61" t="s">
+        <v>402</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>404</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>405</v>
+      </c>
+      <c r="J62" t="s">
+        <v>406</v>
+      </c>
+      <c r="K62" t="s">
+        <v>407</v>
+      </c>
+      <c r="L62" t="s">
+        <v>408</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>409</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>410</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>411</v>
+      </c>
+      <c r="J63" t="s">
+        <v>412</v>
+      </c>
+      <c r="K63" t="s">
+        <v>413</v>
+      </c>
+      <c r="L63" t="s">
+        <v>414</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>415</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>417</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>418</v>
+      </c>
+      <c r="J64" t="s">
+        <v>419</v>
+      </c>
+      <c r="K64" t="s">
+        <v>420</v>
+      </c>
+      <c r="L64" t="s">
+        <v>421</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>422</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>424</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>425</v>
+      </c>
+      <c r="J65" t="s">
+        <v>426</v>
+      </c>
+      <c r="K65" t="s">
+        <v>427</v>
+      </c>
+      <c r="L65" t="s">
+        <v>428</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>429</v>
+      </c>
+      <c r="O65" t="s">
+        <v>97</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>431</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>432</v>
+      </c>
+      <c r="J66" t="s">
+        <v>433</v>
+      </c>
+      <c r="K66" t="s">
+        <v>434</v>
+      </c>
+      <c r="L66" t="s">
+        <v>435</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>429</v>
+      </c>
+      <c r="O66" t="s">
+        <v>66</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>436</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>437</v>
+      </c>
+      <c r="J67" t="s">
+        <v>438</v>
+      </c>
+      <c r="K67" t="s">
+        <v>439</v>
+      </c>
+      <c r="L67" t="s">
+        <v>440</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>441</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>442</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>443</v>
+      </c>
+      <c r="J68" t="s">
+        <v>444</v>
+      </c>
+      <c r="K68" t="s">
+        <v>445</v>
+      </c>
+      <c r="L68" t="s">
+        <v>446</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>447</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>449</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>450</v>
+      </c>
+      <c r="J69" t="s">
+        <v>451</v>
+      </c>
+      <c r="K69" t="s">
+        <v>452</v>
+      </c>
+      <c r="L69" t="s">
+        <v>453</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>447</v>
+      </c>
+      <c r="O69" t="s">
+        <v>66</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>454</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>455</v>
+      </c>
+      <c r="J70" t="s">
+        <v>456</v>
+      </c>
+      <c r="K70" t="s">
+        <v>457</v>
+      </c>
+      <c r="L70" t="s">
+        <v>458</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>459</v>
+      </c>
+      <c r="O70" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>460</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>461</v>
+      </c>
+      <c r="J71" t="s">
+        <v>462</v>
+      </c>
+      <c r="K71" t="s">
+        <v>463</v>
+      </c>
+      <c r="L71" t="s">
+        <v>464</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>459</v>
+      </c>
+      <c r="O71" t="s">
+        <v>97</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>465</v>
+      </c>
+      <c r="X71" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>468</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>469</v>
+      </c>
+      <c r="J72" t="s">
+        <v>470</v>
+      </c>
+      <c r="K72" t="s">
+        <v>471</v>
+      </c>
+      <c r="L72" t="s">
+        <v>472</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>473</v>
+      </c>
+      <c r="O72" t="s">
+        <v>97</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>465</v>
+      </c>
+      <c r="X72" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>475</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>476</v>
+      </c>
+      <c r="J73" t="s">
+        <v>477</v>
+      </c>
+      <c r="K73" t="s">
+        <v>478</v>
+      </c>
+      <c r="L73" t="s">
+        <v>479</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>480</v>
+      </c>
+      <c r="O73" t="s">
+        <v>66</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>481</v>
+      </c>
+      <c r="X73" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>484</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>485</v>
+      </c>
+      <c r="J74" t="s">
+        <v>486</v>
+      </c>
+      <c r="K74" t="s">
+        <v>487</v>
+      </c>
+      <c r="L74" t="s">
+        <v>488</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>489</v>
+      </c>
+      <c r="X74" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>492</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>493</v>
+      </c>
+      <c r="J75" t="s">
+        <v>494</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s">
+        <v>495</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>496</v>
+      </c>
+      <c r="O75" t="s">
+        <v>66</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>497</v>
+      </c>
+      <c r="X75" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>499</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>500</v>
+      </c>
+      <c r="J76" t="s">
+        <v>501</v>
+      </c>
+      <c r="K76" t="s">
+        <v>502</v>
+      </c>
+      <c r="L76" t="s">
+        <v>503</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>496</v>
+      </c>
+      <c r="O76" t="s">
+        <v>211</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>504</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>505</v>
+      </c>
+      <c r="J77" t="s">
+        <v>506</v>
+      </c>
+      <c r="K77" t="s">
+        <v>507</v>
+      </c>
+      <c r="L77" t="s">
+        <v>508</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>509</v>
+      </c>
+      <c r="O77" t="s">
+        <v>97</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>510</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>511</v>
+      </c>
+      <c r="J78" t="s">
+        <v>512</v>
+      </c>
+      <c r="K78" t="s">
+        <v>513</v>
+      </c>
+      <c r="L78" t="s">
+        <v>514</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>515</v>
+      </c>
+      <c r="O78" t="s">
+        <v>66</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>516</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>517</v>
+      </c>
+      <c r="J79" t="s">
+        <v>518</v>
+      </c>
+      <c r="K79" t="s">
+        <v>519</v>
+      </c>
+      <c r="L79" t="s">
+        <v>520</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>521</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>522</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>523</v>
+      </c>
+      <c r="J80" t="s">
+        <v>524</v>
+      </c>
+      <c r="K80" t="s">
+        <v>525</v>
+      </c>
+      <c r="L80" t="s">
+        <v>526</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>527</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>528</v>
+      </c>
+      <c r="J81" t="s">
+        <v>529</v>
+      </c>
+      <c r="K81" t="s">
+        <v>530</v>
+      </c>
+      <c r="L81" t="s">
+        <v>531</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>532</v>
+      </c>
+      <c r="O81" t="s">
+        <v>66</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>533</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>534</v>
+      </c>
+      <c r="J82" t="s">
+        <v>535</v>
+      </c>
+      <c r="K82" t="s">
+        <v>536</v>
+      </c>
+      <c r="L82" t="s">
+        <v>537</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>538</v>
+      </c>
+      <c r="O82" t="s">
+        <v>66</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>539</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>540</v>
+      </c>
+      <c r="J83" t="s">
+        <v>541</v>
+      </c>
+      <c r="K83" t="s">
+        <v>471</v>
+      </c>
+      <c r="L83" t="s">
+        <v>542</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>543</v>
+      </c>
+      <c r="O83" t="s">
+        <v>97</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>545</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>546</v>
+      </c>
+      <c r="J84" t="s">
+        <v>547</v>
+      </c>
+      <c r="K84" t="s">
+        <v>548</v>
+      </c>
+      <c r="L84" t="s">
+        <v>549</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>550</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>551</v>
+      </c>
+      <c r="J85" t="s">
+        <v>552</v>
+      </c>
+      <c r="K85" t="s">
+        <v>553</v>
+      </c>
+      <c r="L85" t="s">
+        <v>554</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>555</v>
+      </c>
+      <c r="O85" t="s">
+        <v>66</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>557</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>558</v>
+      </c>
+      <c r="J86" t="s">
+        <v>559</v>
+      </c>
+      <c r="K86" t="s">
+        <v>560</v>
+      </c>
+      <c r="L86" t="s">
+        <v>561</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>562</v>
+      </c>
+      <c r="O86" t="s">
+        <v>66</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>563</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>564</v>
+      </c>
+      <c r="J87" t="s">
+        <v>565</v>
+      </c>
+      <c r="K87" t="s">
+        <v>566</v>
+      </c>
+      <c r="L87" t="s">
+        <v>567</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>568</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>570</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>571</v>
+      </c>
+      <c r="J88" t="s">
+        <v>572</v>
+      </c>
+      <c r="K88" t="s">
+        <v>573</v>
+      </c>
+      <c r="L88" t="s">
+        <v>574</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>575</v>
+      </c>
+      <c r="O88" t="s">
+        <v>66</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>577</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>578</v>
+      </c>
+      <c r="J89" t="s">
+        <v>579</v>
+      </c>
+      <c r="K89" t="s">
+        <v>580</v>
+      </c>
+      <c r="L89" t="s">
+        <v>581</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>582</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>583</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>584</v>
+      </c>
+      <c r="J90" t="s">
+        <v>585</v>
+      </c>
+      <c r="K90" t="s">
+        <v>586</v>
+      </c>
+      <c r="L90" t="s">
+        <v>587</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>589</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>590</v>
+      </c>
+      <c r="J91" t="s">
+        <v>591</v>
+      </c>
+      <c r="K91" t="s">
+        <v>592</v>
+      </c>
+      <c r="L91" t="s">
+        <v>593</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>594</v>
+      </c>
+      <c r="O91" t="s">
+        <v>66</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>596</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>597</v>
+      </c>
+      <c r="J92" t="s">
+        <v>598</v>
+      </c>
+      <c r="K92" t="s">
+        <v>599</v>
+      </c>
+      <c r="L92" t="s">
+        <v>600</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>601</v>
+      </c>
+      <c r="O92" t="s">
+        <v>66</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>603</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>604</v>
+      </c>
+      <c r="J93" t="s">
+        <v>605</v>
+      </c>
+      <c r="K93" t="s">
+        <v>606</v>
+      </c>
+      <c r="L93" t="s">
+        <v>607</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>609</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>610</v>
+      </c>
+      <c r="J94" t="s">
+        <v>611</v>
+      </c>
+      <c r="K94" t="s">
+        <v>612</v>
+      </c>
+      <c r="L94" t="s">
+        <v>613</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>614</v>
+      </c>
+      <c r="O94" t="s">
+        <v>97</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
